--- a/HubRecoHnM.xlsx
+++ b/HubRecoHnM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\celfernandes\code\celfernandes\RecoHnM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFD479BC-AE97-4B7D-B841-D5153DA76A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73337C61-1989-4943-AF25-A3FC493C3EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="721" activeTab="2" xr2:uid="{0F2E49E0-543A-4078-8D46-BC74EC530CDA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="721" xr2:uid="{0F2E49E0-543A-4078-8D46-BC74EC530CDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Infos utiles" sheetId="12" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="215">
   <si>
     <t>Zone géographique</t>
   </si>
@@ -898,7 +898,10 @@
     <t>Notebook Bookmarks</t>
   </si>
   <si>
-    <t>Articles</t>
+    <t>RecoHnM</t>
+  </si>
+  <si>
+    <t>Voir dossier notebooks</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1071,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1224,13 +1227,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1242,7 +1251,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1250,20 +1261,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1273,35 +1279,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1310,24 +1309,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1342,63 +1330,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1427,23 +1361,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1460,9 +1383,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1482,15 +1402,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1542,10 +1453,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1557,120 +1468,75 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1682,22 +1548,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1713,87 +1579,115 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2872,346 +2766,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F08670-F8FA-47DB-8D09-3C129D7BA0C9}">
-  <dimension ref="B2:N31"/>
+  <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="96"/>
-    <col min="2" max="2" width="24.9296875" style="96" customWidth="1"/>
-    <col min="3" max="16384" width="10.6640625" style="96"/>
+    <col min="1" max="1" width="10.6640625" style="77"/>
+    <col min="2" max="2" width="24.9296875" style="77" customWidth="1"/>
+    <col min="3" max="16384" width="10.6640625" style="77"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="22.5">
-      <c r="B2" s="100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="96" t="s">
+    <row r="2" spans="2:3" ht="22.5">
+      <c r="B2" s="80" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="77" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="116" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="96" t="s">
+    <row r="7" spans="2:3">
+      <c r="B7" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="77" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="96" t="s">
+    <row r="9" spans="2:3">
+      <c r="B9" s="77" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="77" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="96" t="s">
+    <row r="12" spans="2:3">
+      <c r="B12" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="125" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125" t="s">
-        <v>213</v>
-      </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="125"/>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="118"/>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
-      <c r="N14" s="121"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="C15" s="119"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="121"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="C16" s="119"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="121"/>
-    </row>
-    <row r="17" spans="3:14">
-      <c r="C17" s="119"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="121"/>
-    </row>
-    <row r="18" spans="3:14">
-      <c r="C18" s="119"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="121"/>
-    </row>
-    <row r="19" spans="3:14">
-      <c r="C19" s="119"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="121"/>
-    </row>
-    <row r="20" spans="3:14">
-      <c r="C20" s="119"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="121"/>
-    </row>
-    <row r="21" spans="3:14">
-      <c r="C21" s="119"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="121"/>
-    </row>
-    <row r="22" spans="3:14">
-      <c r="C22" s="119"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="121"/>
-    </row>
-    <row r="23" spans="3:14">
-      <c r="C23" s="119"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="121"/>
-    </row>
-    <row r="24" spans="3:14">
-      <c r="C24" s="119"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="121"/>
-    </row>
-    <row r="25" spans="3:14">
-      <c r="C25" s="119"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="120"/>
-      <c r="N25" s="121"/>
-    </row>
-    <row r="26" spans="3:14">
-      <c r="C26" s="119"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="120"/>
-      <c r="N26" s="121"/>
-    </row>
-    <row r="27" spans="3:14">
-      <c r="C27" s="119"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="121"/>
-    </row>
-    <row r="28" spans="3:14">
-      <c r="C28" s="119"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="121"/>
-    </row>
-    <row r="29" spans="3:14">
-      <c r="C29" s="119"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="120"/>
-      <c r="M29" s="120"/>
-      <c r="N29" s="121"/>
-    </row>
-    <row r="30" spans="3:14">
-      <c r="C30" s="119"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="119"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="121"/>
-    </row>
-    <row r="31" spans="3:14">
-      <c r="C31" s="122"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="123"/>
-      <c r="N31" s="124"/>
+      <c r="C12" s="77" t="s">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="C13:F31"/>
-    <mergeCell ref="G13:J31"/>
-    <mergeCell ref="K13:N31"/>
-  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{2B481555-0921-4F47-AF87-0EFEAC0D259B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3232,330 +2840,330 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3580,54 +3188,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="48.75" customHeight="1">
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="I2" s="45" t="s">
+      <c r="G2" s="98"/>
+      <c r="I2" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
     </row>
     <row r="3" spans="1:11" ht="26.75" customHeight="1" thickBot="1"/>
-    <row r="4" spans="1:11" s="17" customFormat="1" ht="26.75" customHeight="1" thickBot="1">
-      <c r="B4" s="29"/>
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="1:11" s="13" customFormat="1" ht="26.75" customHeight="1" thickBot="1">
+      <c r="B4" s="25"/>
+      <c r="C4" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="I4" s="18" t="s">
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="I4" s="14" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="69.400000000000006" customHeight="1" thickBot="1">
-      <c r="B5" s="30"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="10" t="s">
         <v>116</v>
       </c>
       <c r="J5" s="4"/>
@@ -3636,126 +3244,126 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="51.4" customHeight="1">
-      <c r="B6" s="31"/>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="23" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="34.9" customHeight="1" thickBot="1">
-      <c r="B7" s="9"/>
-      <c r="C7" s="34" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="12"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="11"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" ht="34.9" customHeight="1">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="12"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="11"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1" ht="34.9" customHeight="1">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="12"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="11"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="34.9" customHeight="1" thickBot="1">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="89" t="s">
+      <c r="F10" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="90" t="s">
+      <c r="G10" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="13"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="12"/>
       <c r="K10" s="5"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="B13" s="20"/>
+      <c r="B13" s="16"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="20"/>
-      <c r="C18" s="41"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="37"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="C19" s="21"/>
+      <c r="C19" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3776,510 +3384,510 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7864264-10A1-4FE3-A659-8AD9DD464AD5}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.06640625" style="97" customWidth="1"/>
-    <col min="2" max="2" width="33.06640625" style="97" customWidth="1"/>
-    <col min="3" max="3" width="3.19921875" style="97" customWidth="1"/>
-    <col min="4" max="8" width="10.6640625" style="102"/>
-    <col min="9" max="9" width="23.265625" style="102" customWidth="1"/>
-    <col min="10" max="10" width="2.9296875" style="102" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="102"/>
+    <col min="1" max="1" width="6.06640625" style="78" customWidth="1"/>
+    <col min="2" max="2" width="33.06640625" style="78" customWidth="1"/>
+    <col min="3" max="3" width="3.19921875" style="78" customWidth="1"/>
+    <col min="4" max="8" width="10.6640625" style="82"/>
+    <col min="9" max="9" width="23.265625" style="82" customWidth="1"/>
+    <col min="10" max="10" width="2.9296875" style="82" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="101" customFormat="1" ht="36.4" customHeight="1">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:11" s="81" customFormat="1" ht="36.4" customHeight="1">
+      <c r="A1" s="80" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-    </row>
-    <row r="2" spans="1:11" s="115" customFormat="1" ht="22.15">
-      <c r="A2" s="114" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+    </row>
+    <row r="2" spans="1:11" s="94" customFormat="1" ht="22.15">
+      <c r="A2" s="93" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="115" customFormat="1" ht="22.15">
-      <c r="A3" s="114" t="s">
+    <row r="3" spans="1:11" s="94" customFormat="1" ht="22.15">
+      <c r="A3" s="93" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="101" customFormat="1" ht="22.5">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-    </row>
-    <row r="5" spans="1:11" s="97" customFormat="1">
-      <c r="A5" s="97" t="s">
+    <row r="4" spans="1:11" s="81" customFormat="1" ht="22.5">
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+    </row>
+    <row r="5" spans="1:11" s="78" customFormat="1">
+      <c r="A5" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="K5" s="97" t="s">
+      <c r="K5" s="78" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="97" customFormat="1"/>
+    <row r="6" spans="1:11" s="78" customFormat="1"/>
     <row r="7" spans="1:11">
-      <c r="A7" s="97">
+      <c r="A7" s="78">
         <v>1</v>
       </c>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="102" t="s">
+      <c r="C7" s="85"/>
+      <c r="D7" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="K7" s="102" t="s">
+      <c r="K7" s="82" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="106"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="102" t="s">
+      <c r="B8" s="101"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="K8" s="102" t="s">
+      <c r="K8" s="82" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="106"/>
-      <c r="C9" s="105"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="85"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="106"/>
-      <c r="C10" s="105"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103" t="s">
+      <c r="B10" s="101"/>
+      <c r="C10" s="85"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="G10" s="103" t="s">
+      <c r="G10" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="103" t="s">
+      <c r="H10" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="K10" s="104"/>
+      <c r="K10" s="84"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="106"/>
-      <c r="C11" s="105"/>
-      <c r="E11" s="103" t="s">
+      <c r="B11" s="101"/>
+      <c r="C11" s="85"/>
+      <c r="E11" s="83" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="103" t="s">
+      <c r="F11" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="106"/>
-      <c r="C12" s="105"/>
-      <c r="E12" s="103" t="s">
+      <c r="B12" s="101"/>
+      <c r="C12" s="85"/>
+      <c r="E12" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103" t="s">
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="B13" s="106"/>
-      <c r="C13" s="105"/>
-      <c r="E13" s="103" t="s">
+      <c r="B13" s="101"/>
+      <c r="C13" s="85"/>
+      <c r="E13" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="B14" s="106"/>
-      <c r="C14" s="105"/>
-      <c r="E14" s="103" t="s">
+      <c r="B14" s="101"/>
+      <c r="C14" s="85"/>
+      <c r="E14" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="106"/>
-      <c r="C15" s="105"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="85"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="106"/>
-      <c r="C16" s="105"/>
-      <c r="E16" s="103" t="s">
+      <c r="B16" s="101"/>
+      <c r="C16" s="85"/>
+      <c r="E16" s="83" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103" t="s">
+      <c r="F16" s="83"/>
+      <c r="G16" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="H16" s="103"/>
+      <c r="H16" s="83"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="B17" s="107"/>
+      <c r="B17" s="86"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="97">
+      <c r="A18" s="78">
         <v>2</v>
       </c>
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="101" t="s">
         <v>197</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="102" t="s">
+      <c r="C18" s="85"/>
+      <c r="D18" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="K18" s="102" t="s">
+      <c r="K18" s="82" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="B19" s="106"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="102" t="s">
+      <c r="B19" s="101"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="K19" s="102" t="s">
+      <c r="K19" s="82" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="B20" s="106"/>
-      <c r="C20" s="105"/>
-      <c r="K20" s="104"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="85"/>
+      <c r="K20" s="84"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="B21" s="108"/>
-      <c r="C21" s="105"/>
-      <c r="K21" s="104"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="85"/>
+      <c r="K21" s="84"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="B22" s="107"/>
-      <c r="K22" s="104"/>
+      <c r="B22" s="86"/>
+      <c r="K22" s="84"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="97">
+      <c r="A23" s="78">
         <v>3</v>
       </c>
-      <c r="B23" s="106" t="s">
+      <c r="B23" s="101" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="110" t="s">
+      <c r="C23" s="85"/>
+      <c r="D23" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="K23" s="98" t="s">
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="K23" s="100" t="s">
         <v>186</v>
       </c>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="B24" s="106"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="110" t="s">
+      <c r="B24" s="101"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="89" t="s">
         <v>202</v>
       </c>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="B25" s="106"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="B26" s="106"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
     </row>
     <row r="27" spans="1:15" ht="14.25" customHeight="1">
-      <c r="B27" s="106"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="112" t="s">
+      <c r="B27" s="101"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="F27" s="112" t="s">
+      <c r="F27" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112" t="s">
+      <c r="G27" s="91"/>
+      <c r="H27" s="91" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="B28" s="106"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="113" t="s">
+      <c r="B28" s="101"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="B29" s="106"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="112" t="s">
+      <c r="B29" s="101"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="B30" s="106"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="112" t="s">
+      <c r="B30" s="101"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="B31" s="106"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="112" t="s">
+      <c r="B31" s="101"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="B32" s="106"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="B33" s="106"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="112" t="s">
+      <c r="B33" s="101"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="112"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="B34" s="106"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="109" t="s">
+      <c r="B34" s="101"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="88" t="s">
         <v>176</v>
       </c>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="B35" s="106"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="112" t="s">
+      <c r="B35" s="101"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="F35" s="112" t="s">
+      <c r="F35" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112" t="s">
+      <c r="G35" s="91"/>
+      <c r="H35" s="91" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="B36" s="106"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="113" t="s">
+      <c r="B36" s="101"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="112"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="B37" s="106"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="112" t="s">
+      <c r="B37" s="101"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="112"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="B38" s="106"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="112" t="s">
+      <c r="B38" s="101"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="112"/>
-      <c r="H38" s="112"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="B39" s="106"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="112" t="s">
+      <c r="B39" s="101"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="112"/>
-      <c r="H39" s="112"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="B40" s="106"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="B41" s="106"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="112" t="s">
+      <c r="B41" s="101"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="91" t="s">
         <v>183</v>
       </c>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="112"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="91"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="B42" s="107"/>
+      <c r="B42" s="86"/>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A43" s="97">
+      <c r="A43" s="78">
         <v>4</v>
       </c>
-      <c r="B43" s="107"/>
-      <c r="D43" s="98" t="s">
+      <c r="B43" s="86"/>
+      <c r="D43" s="100" t="s">
         <v>203</v>
       </c>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="98"/>
-      <c r="H43" s="98"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="102" t="s">
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="82" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="B44" s="107"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="98"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="99"/>
+      <c r="B44" s="86"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="79"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="B45" s="107"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="99"/>
+      <c r="B45" s="86"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="79"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="97">
+      <c r="A46" s="78">
         <v>5</v>
       </c>
-      <c r="B46" s="107"/>
-      <c r="D46" s="98" t="s">
+      <c r="B46" s="86"/>
+      <c r="D46" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="98"/>
-      <c r="K46" s="102" t="s">
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
+      <c r="K46" s="82" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="98"/>
-      <c r="H47" s="98"/>
-      <c r="I47" s="98"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4306,37 +3914,37 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="10.6640625" style="42"/>
+    <col min="1" max="16384" width="10.6640625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="44"/>
+      <c r="A2" s="40"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="44"/>
+      <c r="A3" s="40"/>
     </row>
     <row r="11" spans="1:9" ht="14.65" thickBot="1"/>
     <row r="12" spans="1:9" ht="14.65" thickBot="1">
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="43"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="28" spans="7:11">
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44" t="s">
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="K28" s="44"/>
+      <c r="K28" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4359,650 +3967,640 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="52" customWidth="1"/>
-    <col min="2" max="2" width="24.1328125" style="52" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="52" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="52"/>
-    <col min="5" max="5" width="1.9296875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="93.33203125" style="54" customWidth="1"/>
-    <col min="7" max="16384" width="10.6640625" style="52"/>
+    <col min="1" max="1" width="25.33203125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="24.1328125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="45" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="45"/>
+    <col min="5" max="5" width="1.9296875" style="45" customWidth="1"/>
+    <col min="6" max="6" width="93.33203125" style="47" customWidth="1"/>
+    <col min="7" max="16384" width="10.6640625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="51"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="46">
         <v>105542</v>
       </c>
-      <c r="E2" s="53"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:14" ht="8.25" customHeight="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="49" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="49"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="49"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="49"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
+      <c r="A7" s="113"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
     </row>
     <row r="8" spans="1:14" ht="13.15">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="55" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="44" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="38.75" customHeight="1">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="65">
+      <c r="B9" s="56">
         <v>108775015</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="67">
+      <c r="C9" s="72"/>
+      <c r="D9" s="58">
         <v>105542</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="66" t="s">
+      <c r="E9" s="58"/>
+      <c r="F9" s="57" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="38.75" customHeight="1">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="50">
         <v>108775</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="67">
+      <c r="C10" s="72"/>
+      <c r="D10" s="58">
         <v>47224</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="63" t="s">
+      <c r="E10" s="105"/>
+      <c r="F10" s="107" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="38.75" customHeight="1">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="67">
+      <c r="C11" s="72"/>
+      <c r="D11" s="58">
         <v>45875</v>
       </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="63"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="107"/>
     </row>
     <row r="12" spans="1:14" ht="38.75" customHeight="1">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="50">
         <v>253</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="58">
+      <c r="C12" s="72"/>
+      <c r="D12" s="51">
         <v>132</v>
       </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="63" t="s">
+      <c r="E12" s="105"/>
+      <c r="F12" s="107" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="38.75" customHeight="1">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="58">
+      <c r="C13" s="72"/>
+      <c r="D13" s="51">
         <v>131</v>
       </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="63"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="107"/>
     </row>
     <row r="14" spans="1:14" ht="38.75" customHeight="1">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="58">
+      <c r="C14" s="73"/>
+      <c r="D14" s="51">
         <v>19</v>
       </c>
-      <c r="E14" s="69"/>
-      <c r="F14" s="63"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="107"/>
     </row>
     <row r="15" spans="1:14" ht="38.75" customHeight="1">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="65">
+      <c r="B15" s="56">
         <v>1010016</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="58">
+      <c r="C15" s="74"/>
+      <c r="D15" s="51">
         <v>30</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="63" t="s">
+      <c r="E15" s="105"/>
+      <c r="F15" s="107" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="38.75" customHeight="1">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="58">
+      <c r="C16" s="72"/>
+      <c r="D16" s="51">
         <v>30</v>
       </c>
-      <c r="E16" s="69"/>
-      <c r="F16" s="64"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="108"/>
     </row>
     <row r="17" spans="1:6" ht="38.75" customHeight="1">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="50">
         <v>9</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="58">
+      <c r="C17" s="74"/>
+      <c r="D17" s="51">
         <v>50</v>
       </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="63" t="s">
+      <c r="E17" s="105"/>
+      <c r="F17" s="107" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="38.75" customHeight="1">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="58">
+      <c r="C18" s="72"/>
+      <c r="D18" s="51">
         <v>50</v>
       </c>
-      <c r="E18" s="69"/>
-      <c r="F18" s="63"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="107"/>
     </row>
     <row r="19" spans="1:6" ht="38.75" customHeight="1">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="50">
         <v>4</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="63" t="s">
+      <c r="C19" s="72"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="107" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="38.75" customHeight="1">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="64"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="108"/>
     </row>
     <row r="21" spans="1:6" ht="38.75" customHeight="1">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="65">
+      <c r="B21" s="56">
         <v>5</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="64"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="108"/>
     </row>
     <row r="22" spans="1:6" ht="38.75" customHeight="1">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="75"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="109"/>
     </row>
     <row r="23" spans="1:6" ht="38.75" customHeight="1">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="65">
+      <c r="B23" s="56">
         <v>1676</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="58">
+      <c r="C23" s="72"/>
+      <c r="D23" s="51">
         <v>299</v>
       </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="78" t="s">
+      <c r="E23" s="105"/>
+      <c r="F23" s="102" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="38.75" customHeight="1">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="58">
+      <c r="C24" s="72"/>
+      <c r="D24" s="51">
         <v>250</v>
       </c>
-      <c r="E24" s="69"/>
-      <c r="F24" s="79"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="104"/>
     </row>
     <row r="25" spans="1:6" ht="38.75" customHeight="1">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="78" t="s">
+      <c r="C25" s="72"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="102" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="38.75" customHeight="1">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="79"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="104"/>
     </row>
     <row r="27" spans="1:6" ht="38.75" customHeight="1">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="57">
+      <c r="B27" s="50">
         <v>1</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="78" t="s">
+      <c r="C27" s="72"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="102" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="38.75" customHeight="1">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="80"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="103"/>
     </row>
     <row r="29" spans="1:6" ht="38.75" customHeight="1">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="65">
+      <c r="B29" s="56">
         <v>16</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="58">
+      <c r="C29" s="72"/>
+      <c r="D29" s="51">
         <v>57</v>
       </c>
-      <c r="E29" s="68"/>
-      <c r="F29" s="78" t="s">
+      <c r="E29" s="105"/>
+      <c r="F29" s="102" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="38.75" customHeight="1">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="91"/>
-      <c r="D30" s="58">
+      <c r="C30" s="72"/>
+      <c r="D30" s="51">
         <v>56</v>
       </c>
-      <c r="E30" s="69"/>
-      <c r="F30" s="79"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="104"/>
     </row>
     <row r="31" spans="1:6" ht="38.75" customHeight="1">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="65">
+      <c r="B31" s="56">
         <v>1002</v>
       </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="58">
+      <c r="C31" s="72"/>
+      <c r="D31" s="51">
         <v>21</v>
       </c>
-      <c r="E31" s="76"/>
-      <c r="F31" s="78" t="s">
+      <c r="E31" s="60"/>
+      <c r="F31" s="102" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="38.75" customHeight="1">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="58">
+      <c r="C32" s="72"/>
+      <c r="D32" s="51">
         <v>21</v>
       </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="79"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="104"/>
     </row>
     <row r="33" spans="1:6" ht="38.75" customHeight="1">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="93"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="60" t="s">
+      <c r="C33" s="74"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="53" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
     </row>
     <row r="38" spans="1:6" ht="13.15">
-      <c r="A38" s="95" t="s">
+      <c r="A38" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="95" t="s">
+      <c r="B38" s="55"/>
+      <c r="C38" s="76" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25">
-      <c r="A39" s="85" t="s">
+      <c r="A39" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="B39" s="62"/>
+      <c r="B39" s="55"/>
       <c r="C39"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="85" t="s">
+      <c r="A40" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="C40" s="85" t="s">
+      <c r="C40" s="66" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="C41" s="85" t="s">
+      <c r="C41" s="66" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="85" t="s">
+      <c r="A42" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="C42" s="85" t="s">
+      <c r="C42" s="66" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="85" t="s">
+      <c r="A43" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="85" t="s">
+      <c r="C43" s="66" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="85" t="s">
+      <c r="A44" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="C44" s="85" t="s">
+      <c r="C44" s="66" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="85" t="s">
+      <c r="A45" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="C45" s="66" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="85" t="s">
+      <c r="A46" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="C46" s="85" t="s">
+      <c r="C46" s="66" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="85" t="s">
+      <c r="A47" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="C47" s="85" t="s">
+      <c r="C47" s="66" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="85" t="s">
+      <c r="A48" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="C48" s="85" t="s">
+      <c r="C48" s="66" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="85" t="s">
+      <c r="C49" s="66" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="85" t="s">
+      <c r="A50" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="C50" s="85" t="s">
+      <c r="C50" s="66" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="85" t="s">
+      <c r="A51" s="66" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="85" t="s">
+      <c r="A52" s="66" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="66" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="85" t="s">
+      <c r="A54" s="66" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="85" t="s">
+      <c r="A55" s="66" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="85" t="s">
+      <c r="A56" s="66" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="85" t="s">
+      <c r="A57" s="66" t="s">
         <v>152</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F23:F24"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="E25:E26"/>
@@ -5014,6 +4612,16 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5035,370 +4643,374 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="24.1328125" style="52" customWidth="1"/>
-    <col min="2" max="2" width="10.53125" style="52" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="52"/>
-    <col min="4" max="4" width="1.9296875" style="52" customWidth="1"/>
-    <col min="5" max="5" width="93.33203125" style="54" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="52"/>
+    <col min="1" max="1" width="24.1328125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="10.53125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="45"/>
+    <col min="4" max="4" width="1.9296875" style="45" customWidth="1"/>
+    <col min="5" max="5" width="93.33203125" style="47" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="51"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="86">
+      <c r="C2" s="67">
         <v>1371980</v>
       </c>
-      <c r="D2" s="53"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="8.25" customHeight="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="49" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="49"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="49"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="49"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
+      <c r="A7" s="113"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
     </row>
     <row r="8" spans="1:13" ht="13.15">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="55" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="48" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="38.75" customHeight="1">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="60" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="53" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="38.75" customHeight="1">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="66" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="57" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="38.75" customHeight="1">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="66" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="57" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="38.75" customHeight="1">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="66" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="57" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="38.75" customHeight="1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="66" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="57" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="38.75" customHeight="1">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="66" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="57" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="38.75" customHeight="1">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="66" t="s">
+      <c r="B15" s="52"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="57" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="38.75" customHeight="1">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="60"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="53"/>
     </row>
     <row r="17" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="66"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="57"/>
     </row>
     <row r="18" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="66"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="57"/>
     </row>
     <row r="19" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="66"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="57"/>
     </row>
     <row r="20" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="60"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="53"/>
     </row>
     <row r="21" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="60"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="53"/>
     </row>
     <row r="22" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="84"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="65"/>
     </row>
     <row r="23" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="81"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="62"/>
     </row>
     <row r="24" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="82"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="63"/>
     </row>
     <row r="25" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="81"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="62"/>
     </row>
     <row r="26" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="82"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="63"/>
     </row>
     <row r="27" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="81"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="62"/>
     </row>
     <row r="28" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="83"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="64"/>
     </row>
     <row r="29" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="81"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="62"/>
     </row>
     <row r="30" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="82"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="63"/>
     </row>
     <row r="31" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="81"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="62"/>
     </row>
     <row r="32" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="82"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="63"/>
     </row>
     <row r="33" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="60"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="53"/>
     </row>
     <row r="35" spans="1:5" ht="38.25">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="62"/>
+      <c r="B35" s="55"/>
     </row>
     <row r="36" spans="1:5" ht="51.4">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="62"/>
+      <c r="B36" s="55"/>
     </row>
     <row r="37" spans="1:5" ht="25.5">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="62"/>
+      <c r="B37" s="55"/>
     </row>
     <row r="38" spans="1:5" ht="38.25">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="62"/>
+      <c r="B38" s="55"/>
     </row>
     <row r="39" spans="1:5" ht="63.75">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="62"/>
+      <c r="B39" s="55"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="45" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="45" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="45" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C4:M7"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D14"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D25:D26"/>
@@ -5406,10 +5018,6 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D19:D22"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C4:M7"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5429,32 +5037,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="22.06640625" style="39" customWidth="1"/>
-    <col min="2" max="16384" width="10.6640625" style="39"/>
+    <col min="1" max="1" width="22.06640625" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="10.6640625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="34" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="34" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="34" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5497,7 +5105,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="36" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5526,340 +5134,340 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="46"/>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="36"/>
-      <c r="B3" s="48" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="36"/>
+      <c r="A5" s="32"/>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/HubRecoHnM.xlsx
+++ b/HubRecoHnM.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\celfernandes\code\celfernandes\RecoHnM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73337C61-1989-4943-AF25-A3FC493C3EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E9673C-D029-4B5B-8DB1-D3DACAEC34F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="721" xr2:uid="{0F2E49E0-543A-4078-8D46-BC74EC530CDA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="721" activeTab="6" xr2:uid="{0F2E49E0-543A-4078-8D46-BC74EC530CDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Infos utiles" sheetId="12" r:id="rId1"/>
-    <sheet name="Général" sheetId="1" r:id="rId2"/>
-    <sheet name="Baselines" sheetId="11" r:id="rId3"/>
-    <sheet name="Démo Day" sheetId="8" r:id="rId4"/>
-    <sheet name="ARTICLES" sheetId="4" r:id="rId5"/>
-    <sheet name="CLIENTS" sheetId="10" r:id="rId6"/>
-    <sheet name="TRANSACTIONS" sheetId="6" r:id="rId7"/>
-    <sheet name="Modèle" sheetId="7" state="hidden" r:id="rId8"/>
-    <sheet name="Liste Features client" sheetId="2" r:id="rId9"/>
-    <sheet name="Liste features produit" sheetId="3" r:id="rId10"/>
+    <sheet name="Infos de HetM" sheetId="13" r:id="rId2"/>
+    <sheet name="Général" sheetId="1" r:id="rId3"/>
+    <sheet name="Baselines" sheetId="11" r:id="rId4"/>
+    <sheet name="Démo Day" sheetId="8" r:id="rId5"/>
+    <sheet name="ARTICLES" sheetId="4" r:id="rId6"/>
+    <sheet name="CLIENTS" sheetId="10" r:id="rId7"/>
+    <sheet name="TRANSACTIONS" sheetId="6" r:id="rId8"/>
+    <sheet name="Modèle" sheetId="7" state="hidden" r:id="rId9"/>
+    <sheet name="Liste Features client" sheetId="2" r:id="rId10"/>
+    <sheet name="Liste features produit" sheetId="3" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="222">
   <si>
     <t>Zone géographique</t>
   </si>
@@ -455,17 +456,10 @@
     <t>A unique identifier of every customer</t>
   </si>
   <si>
-    <t>1 or missed</t>
-  </si>
-  <si>
     <t>Status in club</t>
   </si>
   <si>
     <t>How often H&amp;M may send news to customer</t>
-  </si>
-  <si>
-    <t>Fashion News 
-1 or missed</t>
   </si>
   <si>
     <t>Postal code of customer</t>
@@ -903,12 +897,44 @@
   <si>
     <t>Voir dossier notebooks</t>
   </si>
+  <si>
+    <t>FN is if a customer get Fashion News newsletter, Active is if the customer is active for communication, sales channel id, 2 is online and 1 store.</t>
+  </si>
+  <si>
+    <t>The transaction table holds all transactions that happened whether returned later or not.</t>
+  </si>
+  <si>
+    <t>For this competition we don't require that it should be new content that you provide as recommendations. Therefore you may recommend items that the customer already has bought.</t>
+  </si>
+  <si>
+    <t>I would guess that this is mostly driven by a typical online "phenomenon": people rebuying the same article in a different size.</t>
+  </si>
+  <si>
+    <t>In my opinion, basically, it is better to choose 'the next most popular' items than 'similar but less popular'</t>
+  </si>
+  <si>
+    <t>f we partition customers into two groups 'online' and 'offline', it becomes clear that it is more difficult to predict future purchases of offline users than to predict those of online users.
+In this notebook, MAP@12 for online users = 0.0287, but for offline users = 0.0165.
+What could be reasons/causes of this difference and how can we overcome?</t>
+  </si>
+  <si>
+    <t>2 is online and 1 store</t>
+  </si>
+  <si>
+    <t>Fashion News 
+1 or missed
+FN is if a customer get Fashion News newsletter</t>
+  </si>
+  <si>
+    <t>1 or missed
+Active is if the customer is active for communication</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,6 +1070,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1366,7 +1404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1624,6 +1662,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1649,9 +1688,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1660,12 +1696,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1678,16 +1723,14 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2768,8 +2811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F08670-F8FA-47DB-8D09-3C129D7BA0C9}">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2781,39 +2824,39 @@
   <sheetData>
     <row r="2" spans="2:3" ht="22.5">
       <c r="B2" s="80" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="77" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" s="116" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="95" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="77" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="77" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="77" t="s">
         <v>212</v>
-      </c>
-      <c r="C12" s="77" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2825,6 +2868,364 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151FBFF3-87CF-4B71-ACB1-07A31BB378A7}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="8.73046875" customWidth="1"/>
+    <col min="2" max="2" width="27.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.265625" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="41"/>
+      <c r="B2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="32"/>
+      <c r="B3" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="32"/>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3773F45-9F2F-4FEF-87D9-C0A66BFAB18B}">
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -3171,6 +3572,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6F7E37-D93A-43B4-BD57-616B8FCDA300}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="117" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="118" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="118" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="99" customHeight="1">
+      <c r="A6" s="119" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="118" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="118" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9216B8-593A-42B1-9669-82D95B36F21F}">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -3193,26 +3640,26 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="48.75" customHeight="1">
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="98"/>
-      <c r="I2" s="99" t="s">
-        <v>118</v>
-      </c>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="I2" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
     </row>
     <row r="3" spans="1:11" ht="26.75" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:11" s="13" customFormat="1" ht="26.75" customHeight="1" thickBot="1">
       <c r="B4" s="25"/>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98"/>
       <c r="I4" s="14" t="s">
         <v>107</v>
       </c>
@@ -3232,11 +3679,11 @@
         <v>11</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="3" t="s">
@@ -3380,7 +3827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7864264-10A1-4FE3-A659-8AD9DD464AD5}">
   <dimension ref="A1:O47"/>
   <sheetViews>
@@ -3402,19 +3849,19 @@
   <sheetData>
     <row r="1" spans="1:11" s="81" customFormat="1" ht="36.4" customHeight="1">
       <c r="A1" s="80" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
     </row>
     <row r="2" spans="1:11" s="94" customFormat="1" ht="22.15">
       <c r="A2" s="93" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="94" customFormat="1" ht="22.15">
       <c r="A3" s="93" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="81" customFormat="1" ht="22.5">
@@ -3424,16 +3871,16 @@
     </row>
     <row r="5" spans="1:11" s="78" customFormat="1">
       <c r="A5" s="78" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K5" s="78" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="78" customFormat="1"/>
@@ -3441,82 +3888,82 @@
       <c r="A7" s="78">
         <v>1</v>
       </c>
-      <c r="B7" s="101" t="s">
-        <v>188</v>
+      <c r="B7" s="102" t="s">
+        <v>186</v>
       </c>
       <c r="C7" s="85"/>
       <c r="D7" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K7" s="82" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="101"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="85"/>
       <c r="D8" s="82" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K8" s="82" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="101"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="85"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="101"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="85"/>
       <c r="E10" s="83"/>
       <c r="F10" s="83" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G10" s="83" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="83" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K10" s="84"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="101"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="85"/>
       <c r="E11" s="83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F11" s="83" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G11" s="83"/>
       <c r="H11" s="83"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="101"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="85"/>
       <c r="E12" s="83" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F12" s="83"/>
       <c r="G12" s="83"/>
       <c r="H12" s="83" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="B13" s="101"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="85"/>
       <c r="E13" s="83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F13" s="83"/>
       <c r="G13" s="83"/>
       <c r="H13" s="83"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="B14" s="101"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="85"/>
       <c r="E14" s="83" t="s">
         <v>15</v>
@@ -3526,7 +3973,7 @@
       <c r="H14" s="83"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="101"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="85"/>
       <c r="E15" s="83"/>
       <c r="F15" s="83"/>
@@ -3534,14 +3981,14 @@
       <c r="H15" s="83"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="101"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="85"/>
       <c r="E16" s="83" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F16" s="83"/>
       <c r="G16" s="83" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H16" s="83"/>
     </row>
@@ -3552,29 +3999,29 @@
       <c r="A18" s="78">
         <v>2</v>
       </c>
-      <c r="B18" s="101" t="s">
-        <v>197</v>
+      <c r="B18" s="102" t="s">
+        <v>195</v>
       </c>
       <c r="C18" s="85"/>
       <c r="D18" s="82" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K18" s="82" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="B19" s="101"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="85"/>
       <c r="D19" s="82" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K19" s="82" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="B20" s="101"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="85"/>
       <c r="K20" s="84"/>
     </row>
@@ -3591,89 +4038,89 @@
       <c r="A23" s="78">
         <v>3</v>
       </c>
-      <c r="B23" s="101" t="s">
-        <v>185</v>
+      <c r="B23" s="102" t="s">
+        <v>183</v>
       </c>
       <c r="C23" s="85"/>
       <c r="D23" s="89" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E23" s="89"/>
       <c r="F23" s="89"/>
       <c r="G23" s="89"/>
       <c r="H23" s="89"/>
-      <c r="K23" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
+      <c r="K23" s="101" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="101"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="B24" s="101"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="85"/>
       <c r="D24" s="89" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E24" s="89"/>
       <c r="F24" s="89"/>
       <c r="G24" s="89"/>
       <c r="H24" s="89"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="101"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="B25" s="101"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="85"/>
       <c r="D25" s="90"/>
       <c r="E25" s="88"/>
       <c r="F25" s="88"/>
       <c r="G25" s="88"/>
       <c r="H25" s="88"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="100"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="B26" s="101"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="85"/>
       <c r="D26" s="88"/>
       <c r="E26" s="88"/>
       <c r="F26" s="88"/>
       <c r="G26" s="88"/>
       <c r="H26" s="88"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
-      <c r="O26" s="100"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
     </row>
     <row r="27" spans="1:15" ht="14.25" customHeight="1">
-      <c r="B27" s="101"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="85"/>
       <c r="D27" s="88"/>
       <c r="E27" s="91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F27" s="91" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="91"/>
       <c r="H27" s="91" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="B28" s="101"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="85"/>
       <c r="D28" s="92" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E28" s="91"/>
       <c r="F28" s="91"/>
@@ -3681,10 +4128,10 @@
       <c r="H28" s="91"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="B29" s="101"/>
+      <c r="B29" s="102"/>
       <c r="C29" s="85"/>
       <c r="D29" s="91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E29" s="91"/>
       <c r="F29" s="91"/>
@@ -3692,10 +4139,10 @@
       <c r="H29" s="91"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="B30" s="101"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="85"/>
       <c r="D30" s="91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E30" s="91"/>
       <c r="F30" s="91"/>
@@ -3703,10 +4150,10 @@
       <c r="H30" s="91"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="B31" s="101"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="85"/>
       <c r="D31" s="91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E31" s="91"/>
       <c r="F31" s="91"/>
@@ -3714,7 +4161,7 @@
       <c r="H31" s="91"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="B32" s="101"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="85"/>
       <c r="D32" s="91"/>
       <c r="E32" s="91"/>
@@ -3723,10 +4170,10 @@
       <c r="H32" s="91"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="B33" s="101"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="85"/>
       <c r="D33" s="91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="91"/>
@@ -3734,10 +4181,10 @@
       <c r="H33" s="91"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="B34" s="101"/>
+      <c r="B34" s="102"/>
       <c r="C34" s="85"/>
       <c r="D34" s="88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E34" s="88"/>
       <c r="F34" s="88"/>
@@ -3745,25 +4192,25 @@
       <c r="H34" s="88"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="B35" s="101"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="85"/>
       <c r="D35" s="88"/>
       <c r="E35" s="91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F35" s="91" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="91"/>
       <c r="H35" s="91" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="B36" s="101"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="85"/>
       <c r="D36" s="92" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E36" s="91"/>
       <c r="F36" s="91"/>
@@ -3771,10 +4218,10 @@
       <c r="H36" s="91"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="B37" s="101"/>
+      <c r="B37" s="102"/>
       <c r="C37" s="85"/>
       <c r="D37" s="91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E37" s="91"/>
       <c r="F37" s="91"/>
@@ -3782,10 +4229,10 @@
       <c r="H37" s="91"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="B38" s="101"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="85"/>
       <c r="D38" s="91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E38" s="91"/>
       <c r="F38" s="91"/>
@@ -3793,10 +4240,10 @@
       <c r="H38" s="91"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="B39" s="101"/>
+      <c r="B39" s="102"/>
       <c r="C39" s="85"/>
       <c r="D39" s="91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E39" s="91"/>
       <c r="F39" s="91"/>
@@ -3804,7 +4251,7 @@
       <c r="H39" s="91"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="B40" s="101"/>
+      <c r="B40" s="102"/>
       <c r="C40" s="85"/>
       <c r="D40" s="91"/>
       <c r="E40" s="91"/>
@@ -3813,10 +4260,10 @@
       <c r="H40" s="91"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="B41" s="101"/>
+      <c r="B41" s="102"/>
       <c r="C41" s="85"/>
       <c r="D41" s="91" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E41" s="91"/>
       <c r="F41" s="91"/>
@@ -3831,27 +4278,27 @@
         <v>4</v>
       </c>
       <c r="B43" s="86"/>
-      <c r="D43" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
+      <c r="D43" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="101"/>
       <c r="J43" s="79"/>
       <c r="K43" s="82" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="B44" s="86"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="101"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="101"/>
       <c r="J44" s="79"/>
     </row>
     <row r="45" spans="1:11">
@@ -3869,25 +4316,25 @@
         <v>5</v>
       </c>
       <c r="B46" s="86"/>
-      <c r="D46" s="100" t="s">
-        <v>206</v>
-      </c>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
+      <c r="D46" s="101" t="s">
+        <v>204</v>
+      </c>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="101"/>
       <c r="K46" s="82" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="D47" s="100"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3904,7 +4351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023691F0-150F-4969-8E02-51CE11461242}">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -3952,7 +4399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9CBB30-2461-437B-9D80-83A82026094A}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -3960,7 +4407,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="E8" sqref="E8"/>
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
@@ -4001,79 +4448,79 @@
       <c r="C3" s="54"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="107" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
-      <c r="D4" s="113" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
+      <c r="D4" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="113"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="113"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="113"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
     </row>
     <row r="8" spans="1:14" ht="13.15">
       <c r="A8" s="44" t="s">
         <v>83</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C8" s="44" t="s">
         <v>88</v>
@@ -4102,7 +4549,7 @@
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="38.75" customHeight="1">
@@ -4117,7 +4564,7 @@
         <v>47224</v>
       </c>
       <c r="E10" s="105"/>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="109" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4126,14 +4573,14 @@
         <v>27</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C11" s="72"/>
       <c r="D11" s="58">
         <v>45875</v>
       </c>
       <c r="E11" s="106"/>
-      <c r="F11" s="107"/>
+      <c r="F11" s="109"/>
     </row>
     <row r="12" spans="1:14" ht="38.75" customHeight="1">
       <c r="A12" s="53" t="s">
@@ -4147,7 +4594,7 @@
         <v>132</v>
       </c>
       <c r="E12" s="105"/>
-      <c r="F12" s="107" t="s">
+      <c r="F12" s="109" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4156,28 +4603,28 @@
         <v>29</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C13" s="72"/>
       <c r="D13" s="51">
         <v>131</v>
       </c>
-      <c r="E13" s="115"/>
-      <c r="F13" s="107"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="109"/>
     </row>
     <row r="14" spans="1:14" ht="38.75" customHeight="1">
       <c r="A14" s="53" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C14" s="73"/>
       <c r="D14" s="51">
         <v>19</v>
       </c>
       <c r="E14" s="106"/>
-      <c r="F14" s="107"/>
+      <c r="F14" s="109"/>
     </row>
     <row r="15" spans="1:14" ht="38.75" customHeight="1">
       <c r="A15" s="53" t="s">
@@ -4191,7 +4638,7 @@
         <v>30</v>
       </c>
       <c r="E15" s="105"/>
-      <c r="F15" s="107" t="s">
+      <c r="F15" s="109" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4200,14 +4647,14 @@
         <v>31</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C16" s="72"/>
       <c r="D16" s="51">
         <v>30</v>
       </c>
       <c r="E16" s="106"/>
-      <c r="F16" s="108"/>
+      <c r="F16" s="110"/>
     </row>
     <row r="17" spans="1:6" ht="38.75" customHeight="1">
       <c r="A17" s="53" t="s">
@@ -4221,7 +4668,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="105"/>
-      <c r="F17" s="107" t="s">
+      <c r="F17" s="109" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4230,14 +4677,14 @@
         <v>32</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C18" s="72"/>
       <c r="D18" s="51">
         <v>50</v>
       </c>
       <c r="E18" s="106"/>
-      <c r="F18" s="107"/>
+      <c r="F18" s="109"/>
     </row>
     <row r="19" spans="1:6" ht="38.75" customHeight="1">
       <c r="A19" s="53" t="s">
@@ -4248,8 +4695,8 @@
       </c>
       <c r="C19" s="72"/>
       <c r="D19" s="51"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="107" t="s">
+      <c r="E19" s="113"/>
+      <c r="F19" s="109" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4258,12 +4705,12 @@
         <v>34</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C20" s="72"/>
       <c r="D20" s="51"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="108"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="110"/>
     </row>
     <row r="21" spans="1:6" ht="38.75" customHeight="1">
       <c r="A21" s="53" t="s">
@@ -4274,20 +4721,20 @@
       </c>
       <c r="C21" s="72"/>
       <c r="D21" s="51"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="108"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="110"/>
     </row>
     <row r="22" spans="1:6" ht="38.75" customHeight="1">
       <c r="A22" s="53" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C22" s="72"/>
       <c r="D22" s="51"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="109"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="112"/>
     </row>
     <row r="23" spans="1:6" ht="38.75" customHeight="1">
       <c r="A23" s="53" t="s">
@@ -4301,7 +4748,7 @@
         <v>299</v>
       </c>
       <c r="E23" s="105"/>
-      <c r="F23" s="102" t="s">
+      <c r="F23" s="103" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4310,7 +4757,7 @@
         <v>38</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C24" s="72"/>
       <c r="D24" s="51">
@@ -4324,12 +4771,12 @@
         <v>39</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C25" s="72"/>
       <c r="D25" s="51"/>
       <c r="E25" s="105"/>
-      <c r="F25" s="102" t="s">
+      <c r="F25" s="103" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4338,7 +4785,7 @@
         <v>40</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C26" s="72"/>
       <c r="D26" s="51"/>
@@ -4355,7 +4802,7 @@
       <c r="C27" s="72"/>
       <c r="D27" s="51"/>
       <c r="E27" s="105"/>
-      <c r="F27" s="102" t="s">
+      <c r="F27" s="103" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4364,12 +4811,12 @@
         <v>42</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C28" s="72"/>
       <c r="D28" s="51"/>
       <c r="E28" s="106"/>
-      <c r="F28" s="103"/>
+      <c r="F28" s="116"/>
     </row>
     <row r="29" spans="1:6" ht="38.75" customHeight="1">
       <c r="A29" s="53" t="s">
@@ -4383,7 +4830,7 @@
         <v>57</v>
       </c>
       <c r="E29" s="105"/>
-      <c r="F29" s="102" t="s">
+      <c r="F29" s="103" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4392,7 +4839,7 @@
         <v>44</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C30" s="72"/>
       <c r="D30" s="51">
@@ -4403,7 +4850,7 @@
     </row>
     <row r="31" spans="1:6" ht="38.75" customHeight="1">
       <c r="A31" s="57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B31" s="56">
         <v>1002</v>
@@ -4413,7 +4860,7 @@
         <v>21</v>
       </c>
       <c r="E31" s="60"/>
-      <c r="F31" s="102" t="s">
+      <c r="F31" s="103" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4422,7 +4869,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C32" s="72"/>
       <c r="D32" s="51">
@@ -4436,7 +4883,7 @@
         <v>102</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C33" s="74"/>
       <c r="D33" s="51"/>
@@ -4462,145 +4909,150 @@
     </row>
     <row r="38" spans="1:6" ht="13.15">
       <c r="A38" s="76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B38" s="55"/>
       <c r="C38" s="76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25">
       <c r="A39" s="66" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B39" s="55"/>
       <c r="C39"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="66" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C40" s="66" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="66" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C42" s="66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="66" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C43" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C44" s="66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="66" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C48" s="66" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="66" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C49" s="66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="66" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C50" s="66" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="66" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="66" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="66" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="66" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="E25:E26"/>
@@ -4617,28 +5069,23 @@
     <mergeCell ref="F19:F22"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A375C8-869D-4066-91F9-FA9320E87AD6}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="E8" sqref="E8"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -4674,68 +5121,68 @@
       <c r="B3" s="54"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="107" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="59"/>
-      <c r="C4" s="113" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
+      <c r="C4" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="113"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="59"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="113"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="59"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="113"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="59"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
     </row>
     <row r="8" spans="1:13" ht="13.15">
       <c r="A8" s="44" t="s">
@@ -4771,7 +5218,7 @@
       <c r="C10" s="58"/>
       <c r="D10" s="105"/>
       <c r="E10" s="57" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="38.75" customHeight="1">
@@ -4782,7 +5229,7 @@
       <c r="C11" s="58"/>
       <c r="D11" s="106"/>
       <c r="E11" s="57" t="s">
-        <v>109</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="38.75" customHeight="1">
@@ -4793,7 +5240,7 @@
       <c r="C12" s="51"/>
       <c r="D12" s="105"/>
       <c r="E12" s="57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="38.75" customHeight="1">
@@ -4802,9 +5249,9 @@
       </c>
       <c r="B13" s="49"/>
       <c r="C13" s="51"/>
-      <c r="D13" s="115"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="38.75" customHeight="1">
@@ -4815,7 +5262,7 @@
       <c r="C14" s="51"/>
       <c r="D14" s="106"/>
       <c r="E14" s="57" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="38.75" customHeight="1">
@@ -4826,7 +5273,7 @@
       <c r="C15" s="51"/>
       <c r="D15" s="105"/>
       <c r="E15" s="57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="38.75" customHeight="1">
@@ -4854,28 +5301,28 @@
       <c r="A19" s="49"/>
       <c r="B19" s="49"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="110"/>
+      <c r="D19" s="113"/>
       <c r="E19" s="57"/>
     </row>
     <row r="20" spans="1:5" ht="38.75" customHeight="1">
       <c r="A20" s="49"/>
       <c r="B20" s="49"/>
       <c r="C20" s="51"/>
-      <c r="D20" s="111"/>
+      <c r="D20" s="114"/>
       <c r="E20" s="53"/>
     </row>
     <row r="21" spans="1:5" ht="38.75" customHeight="1">
       <c r="A21" s="49"/>
       <c r="B21" s="49"/>
       <c r="C21" s="51"/>
-      <c r="D21" s="111"/>
+      <c r="D21" s="114"/>
       <c r="E21" s="53"/>
     </row>
     <row r="22" spans="1:5" ht="38.75" customHeight="1">
       <c r="A22" s="49"/>
       <c r="B22" s="49"/>
       <c r="C22" s="51"/>
-      <c r="D22" s="112"/>
+      <c r="D22" s="115"/>
       <c r="E22" s="65"/>
     </row>
     <row r="23" spans="1:5" ht="38.75" customHeight="1">
@@ -5024,15 +5471,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8F9103-AA65-4087-9868-87054B4C249D}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.15"/>
@@ -5041,29 +5488,32 @@
     <col min="2" max="16384" width="10.6640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" s="34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" s="34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" s="34" t="s">
         <v>56</v>
+      </c>
+      <c r="B5" s="117" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -5071,7 +5521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D878A8-606F-46BE-97F6-742F75313951}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -5115,362 +5565,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151FBFF3-87CF-4B71-ACB1-07A31BB378A7}">
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="8.73046875" customWidth="1"/>
-    <col min="2" max="2" width="27.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="41"/>
-      <c r="B2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="32"/>
-      <c r="B3" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="32"/>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/HubRecoHnM.xlsx
+++ b/HubRecoHnM.xlsx
@@ -8,23 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\celfernandes\code\celfernandes\RecoHnM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E9673C-D029-4B5B-8DB1-D3DACAEC34F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E62D40-CD59-4078-9235-1DFCB82BD7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="721" activeTab="6" xr2:uid="{0F2E49E0-543A-4078-8D46-BC74EC530CDA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="721" firstSheet="4" activeTab="6" xr2:uid="{0F2E49E0-543A-4078-8D46-BC74EC530CDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Infos utiles" sheetId="12" r:id="rId1"/>
     <sheet name="Infos de HetM" sheetId="13" r:id="rId2"/>
     <sheet name="Général" sheetId="1" r:id="rId3"/>
     <sheet name="Baselines" sheetId="11" r:id="rId4"/>
-    <sheet name="Démo Day" sheetId="8" r:id="rId5"/>
-    <sheet name="ARTICLES" sheetId="4" r:id="rId6"/>
-    <sheet name="CLIENTS" sheetId="10" r:id="rId7"/>
-    <sheet name="TRANSACTIONS" sheetId="6" r:id="rId8"/>
-    <sheet name="Modèle" sheetId="7" state="hidden" r:id="rId9"/>
-    <sheet name="Liste Features client" sheetId="2" r:id="rId10"/>
-    <sheet name="Liste features produit" sheetId="3" r:id="rId11"/>
+    <sheet name="Baselines results" sheetId="14" r:id="rId5"/>
+    <sheet name="Analyses habitudes d'achat" sheetId="16" r:id="rId6"/>
+    <sheet name="Analyses articles" sheetId="15" r:id="rId7"/>
+    <sheet name="Démo Day" sheetId="8" r:id="rId8"/>
+    <sheet name="ARTICLES" sheetId="4" r:id="rId9"/>
+    <sheet name="Catégories d'articles" sheetId="17" r:id="rId10"/>
+    <sheet name="CLIENTS" sheetId="10" r:id="rId11"/>
+    <sheet name="TRANSACTIONS" sheetId="6" r:id="rId12"/>
+    <sheet name="Modèle" sheetId="7" state="hidden" r:id="rId13"/>
+    <sheet name="Liste Features client" sheetId="2" r:id="rId14"/>
+    <sheet name="Liste features produit" sheetId="3" r:id="rId15"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Catégories d''articles'!$A$3:$C$134</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="393">
   <si>
     <t>Zone géographique</t>
   </si>
@@ -929,12 +936,525 @@
     <t>1 or missed
 Active is if the customer is active for communication</t>
   </si>
+  <si>
+    <t>WEEK 101</t>
+  </si>
+  <si>
+    <t>WEEK 102</t>
+  </si>
+  <si>
+    <t>WEEK 103</t>
+  </si>
+  <si>
+    <t>WEEK 104</t>
+  </si>
+  <si>
+    <t>H&amp;M - Similar Products Recommender Script | Kaggle</t>
+  </si>
+  <si>
+    <t>Objet</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>The purpose of this notebook is to find similar products for any given article_id. This is done by using TF-IDF and cosine similarity approach.Given any article ID the script finds 10 similar articles.</t>
+  </si>
+  <si>
+    <t>Straptop Vesttop GarmentUpperbody Solid Black …</t>
+  </si>
+  <si>
+    <t>Product launches, relevant articles &amp; customers | Kaggle</t>
+  </si>
+  <si>
+    <t>Section Looking at customers</t>
+  </si>
+  <si>
+    <t>⭐️⭐️⭐️ H&amp;M - EDA - first look into data ⭐️⭐️⭐️ | Kaggle</t>
+  </si>
+  <si>
+    <t>Travail exploratoire sur les articles intéressant pour comprendre la structure des données</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/datota/h-m-personalised-f-customer-color-category-eda</t>
+  </si>
+  <si>
+    <t>relations Age x produit</t>
+  </si>
+  <si>
+    <t>relations Age x couleur</t>
+  </si>
+  <si>
+    <t>EDA - H&amp;M Data | Kaggle</t>
+  </si>
+  <si>
+    <t>product_group_name</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>Accessories set</t>
+  </si>
+  <si>
+    <t>Alice band</t>
+  </si>
+  <si>
+    <t>Baby Bib</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Beanie</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>Bracelet</t>
+  </si>
+  <si>
+    <t>Braces</t>
+  </si>
+  <si>
+    <t>Bucket hat</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Cap/peaked</t>
+  </si>
+  <si>
+    <t>Dog Wear</t>
+  </si>
+  <si>
+    <t>Earring</t>
+  </si>
+  <si>
+    <t>Earrings</t>
+  </si>
+  <si>
+    <t>Eyeglasses</t>
+  </si>
+  <si>
+    <t>Felt hat</t>
+  </si>
+  <si>
+    <t>Giftbox</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>Hair clip</t>
+  </si>
+  <si>
+    <t>Hair string</t>
+  </si>
+  <si>
+    <t>Hair ties</t>
+  </si>
+  <si>
+    <t>Hair/alice band</t>
+  </si>
+  <si>
+    <t>Hairband</t>
+  </si>
+  <si>
+    <t>Hat/beanie</t>
+  </si>
+  <si>
+    <t>Hat/brim</t>
+  </si>
+  <si>
+    <t>Headband</t>
+  </si>
+  <si>
+    <t>Necklace</t>
+  </si>
+  <si>
+    <t>Other accessories</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>Soft Toys</t>
+  </si>
+  <si>
+    <t>Straw hat</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Tie</t>
+  </si>
+  <si>
+    <t>Umbrella</t>
+  </si>
+  <si>
+    <t>Wallet</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>Waterbottle</t>
+  </si>
+  <si>
+    <t>Bags</t>
+  </si>
+  <si>
+    <t>Backpack</t>
+  </si>
+  <si>
+    <t>Bumbag</t>
+  </si>
+  <si>
+    <t>Cross-body bag</t>
+  </si>
+  <si>
+    <t>Shoulder bag</t>
+  </si>
+  <si>
+    <t>Tote bag</t>
+  </si>
+  <si>
+    <t>Weekend/Gym bag</t>
+  </si>
+  <si>
+    <t>Cosmetic</t>
+  </si>
+  <si>
+    <t>Chem. cosmetics</t>
+  </si>
+  <si>
+    <t>Fine cosmetics</t>
+  </si>
+  <si>
+    <t>Fun</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Side table</t>
+  </si>
+  <si>
+    <t>Garment Full body</t>
+  </si>
+  <si>
+    <t>Costumes</t>
+  </si>
+  <si>
+    <t>Dress</t>
+  </si>
+  <si>
+    <t>Dungarees</t>
+  </si>
+  <si>
+    <t>Garment Set</t>
+  </si>
+  <si>
+    <t>Jumpsuit/Playsuit</t>
+  </si>
+  <si>
+    <t>Outdoor overall</t>
+  </si>
+  <si>
+    <t>Garment Lower body</t>
+  </si>
+  <si>
+    <t>Leggings/Tights</t>
+  </si>
+  <si>
+    <t>Outdoor trousers</t>
+  </si>
+  <si>
+    <t>Shorts</t>
+  </si>
+  <si>
+    <t>Skirt</t>
+  </si>
+  <si>
+    <t>Trousers</t>
+  </si>
+  <si>
+    <t>Blazer</t>
+  </si>
+  <si>
+    <t>Blouse</t>
+  </si>
+  <si>
+    <t>Bodysuit</t>
+  </si>
+  <si>
+    <t>Cardigan</t>
+  </si>
+  <si>
+    <t>Coat</t>
+  </si>
+  <si>
+    <t>Hoodie</t>
+  </si>
+  <si>
+    <t>Jacket</t>
+  </si>
+  <si>
+    <t>Outdoor Waistcoat</t>
+  </si>
+  <si>
+    <t>Polo shirt</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>Sweater</t>
+  </si>
+  <si>
+    <t>T-shirt</t>
+  </si>
+  <si>
+    <t>Tailored Waistcoat</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Garment and Shoe care</t>
+  </si>
+  <si>
+    <t>Clothing mist</t>
+  </si>
+  <si>
+    <t>Sewing kit</t>
+  </si>
+  <si>
+    <t>Stain remover spray</t>
+  </si>
+  <si>
+    <t>Washing bag</t>
+  </si>
+  <si>
+    <t>Wood balls</t>
+  </si>
+  <si>
+    <t>Zipper head</t>
+  </si>
+  <si>
+    <t>Interior textile</t>
+  </si>
+  <si>
+    <t>Blanket</t>
+  </si>
+  <si>
+    <t>Cushion</t>
+  </si>
+  <si>
+    <t>Towel</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Dog wear</t>
+  </si>
+  <si>
+    <t>Keychain</t>
+  </si>
+  <si>
+    <t>Mobile case</t>
+  </si>
+  <si>
+    <t>Wireless earphone case</t>
+  </si>
+  <si>
+    <t>Nightwear</t>
+  </si>
+  <si>
+    <t>Night gown</t>
+  </si>
+  <si>
+    <t>Pyjama bottom</t>
+  </si>
+  <si>
+    <t>Pyjama jumpsuit/playsuit</t>
+  </si>
+  <si>
+    <t>Pyjama set</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Ballerinas</t>
+  </si>
+  <si>
+    <t>Bootie</t>
+  </si>
+  <si>
+    <t>Boots</t>
+  </si>
+  <si>
+    <t>Flat shoe</t>
+  </si>
+  <si>
+    <t>Flat shoes</t>
+  </si>
+  <si>
+    <t>Flip flop</t>
+  </si>
+  <si>
+    <t>Heeled sandals</t>
+  </si>
+  <si>
+    <t>Heels</t>
+  </si>
+  <si>
+    <t>Moccasins</t>
+  </si>
+  <si>
+    <t>Other shoe</t>
+  </si>
+  <si>
+    <t>Pre-walkers</t>
+  </si>
+  <si>
+    <t>Pumps</t>
+  </si>
+  <si>
+    <t>Sandals</t>
+  </si>
+  <si>
+    <t>Slippers</t>
+  </si>
+  <si>
+    <t>Sneakers</t>
+  </si>
+  <si>
+    <t>Wedge</t>
+  </si>
+  <si>
+    <t>Socks &amp; Tights</t>
+  </si>
+  <si>
+    <t>Leg warmers</t>
+  </si>
+  <si>
+    <t>Socks</t>
+  </si>
+  <si>
+    <t>Underwear Tights</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Marker pen</t>
+  </si>
+  <si>
+    <t>Swimwear</t>
+  </si>
+  <si>
+    <t>Bikini top</t>
+  </si>
+  <si>
+    <t>Sarong</t>
+  </si>
+  <si>
+    <t>Swimsuit</t>
+  </si>
+  <si>
+    <t>Swimwear bottom</t>
+  </si>
+  <si>
+    <t>Swimwear set</t>
+  </si>
+  <si>
+    <t>Swimwear top</t>
+  </si>
+  <si>
+    <t>Underwear</t>
+  </si>
+  <si>
+    <t>Bra</t>
+  </si>
+  <si>
+    <t>Bra extender</t>
+  </si>
+  <si>
+    <t>Kids Underwear top</t>
+  </si>
+  <si>
+    <t>Long John</t>
+  </si>
+  <si>
+    <t>Nipple covers</t>
+  </si>
+  <si>
+    <t>Robe</t>
+  </si>
+  <si>
+    <t>Underdress</t>
+  </si>
+  <si>
+    <t>Underwear body</t>
+  </si>
+  <si>
+    <t>Underwear bottom</t>
+  </si>
+  <si>
+    <t>Underwear corset</t>
+  </si>
+  <si>
+    <t>Underwear set</t>
+  </si>
+  <si>
+    <t>Underwear/nightwear</t>
+  </si>
+  <si>
+    <t>Sleep Bag</t>
+  </si>
+  <si>
+    <t>Sleeping sack</t>
+  </si>
+  <si>
+    <t>Total nb de références</t>
+  </si>
+  <si>
+    <t>Tights</t>
+  </si>
+  <si>
+    <t>Scarf and Gloves</t>
+  </si>
+  <si>
+    <t>Hat</t>
+  </si>
+  <si>
+    <t>catégorie pour le projet , distinction produit typiques homme/feme, saison été hiver</t>
+  </si>
+  <si>
+    <t>Waistcoat</t>
+  </si>
+  <si>
+    <t>Others accessories</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1082,8 +1602,60 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3C4043"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1108,8 +1680,152 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3366CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC3399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF663300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1399,12 +2115,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1663,81 +2420,250 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="22" fillId="17" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="22" fillId="17" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="17" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF663300"/>
+      <color rgb="FFCC3399"/>
+      <color rgb="FFFF0066"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF3366CC"/>
+      <color rgb="FF99CC00"/>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2812,7 +3738,7 @@
   <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2868,6 +3794,1998 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461CC462-EE6D-404A-AE02-6E6ACAC1E6E8}">
+  <dimension ref="A1:H134"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.46484375" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3984375" style="99" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" style="99"/>
+    <col min="5" max="5" width="14.33203125" style="99" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.265625" style="99" customWidth="1"/>
+    <col min="7" max="7" width="16.06640625" style="99" customWidth="1"/>
+    <col min="8" max="16384" width="10.6640625" style="99"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1" s="99">
+        <f>SUM(C4:C134)</f>
+        <v>105421</v>
+      </c>
+      <c r="D1" s="99">
+        <f>SUM(D4:D134)</f>
+        <v>105421</v>
+      </c>
+      <c r="E1" s="154">
+        <f>SUM(E4:E134)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="144" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="145"/>
+      <c r="G3" s="99" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="147" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="153" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="153">
+        <v>7</v>
+      </c>
+      <c r="D4" s="149">
+        <f>SUM(C4:C41)</f>
+        <v>11158</v>
+      </c>
+      <c r="E4" s="150">
+        <f>D4/C$1</f>
+        <v>0.10584228948691438</v>
+      </c>
+      <c r="G4" s="99" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="143"/>
+      <c r="B5" s="153" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="153">
+        <v>6</v>
+      </c>
+      <c r="G5" s="99" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="143"/>
+      <c r="B6" s="161" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="143"/>
+      <c r="B7" s="166" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="166">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="143"/>
+      <c r="B8" s="153" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="153">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="143"/>
+      <c r="B9" s="162" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="162">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="143"/>
+      <c r="B10" s="164" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="164">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="143"/>
+      <c r="B11" s="164" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="143"/>
+      <c r="B12" s="163" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="163">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="143"/>
+      <c r="B13" s="163" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="163">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="143"/>
+      <c r="B14" s="163" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="163">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="143"/>
+      <c r="B15" s="153" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="153">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="143"/>
+      <c r="B16" s="164" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="164">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="143"/>
+      <c r="B17" s="164" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="164">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="143"/>
+      <c r="B18" s="153" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="143"/>
+      <c r="B19" s="163" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="163">
+        <v>10</v>
+      </c>
+      <c r="G19" s="174" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="143"/>
+      <c r="B20" s="153" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="153">
+        <v>15</v>
+      </c>
+      <c r="G20" s="171" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="143"/>
+      <c r="B21" s="167" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" s="167">
+        <v>367</v>
+      </c>
+      <c r="G21" s="172" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="143"/>
+      <c r="B22" s="162" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="162">
+        <v>244</v>
+      </c>
+      <c r="G22" s="173" t="s">
+        <v>274</v>
+      </c>
+      <c r="H22" s="152"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="143"/>
+      <c r="B23" s="162" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="162">
+        <v>238</v>
+      </c>
+      <c r="G23" s="99" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="143"/>
+      <c r="B24" s="162" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="162">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="143"/>
+      <c r="B25" s="162" t="s">
+        <v>262</v>
+      </c>
+      <c r="C25" s="162">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="143"/>
+      <c r="B26" s="162" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26" s="162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="143"/>
+      <c r="B27" s="163" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" s="163">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="143"/>
+      <c r="B28" s="163" t="s">
+        <v>265</v>
+      </c>
+      <c r="C28" s="163">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="143"/>
+      <c r="B29" s="162" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" s="162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="143"/>
+      <c r="B30" s="153" t="s">
+        <v>267</v>
+      </c>
+      <c r="C30" s="153">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="143"/>
+      <c r="B31" s="155" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" s="155">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="143"/>
+      <c r="B32" s="164" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" s="164">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="143"/>
+      <c r="B33" s="167" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="167">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="143"/>
+      <c r="B34" s="168" t="s">
+        <v>271</v>
+      </c>
+      <c r="C34" s="168">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="143"/>
+      <c r="B35" s="153" t="s">
+        <v>272</v>
+      </c>
+      <c r="C35" s="153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="143"/>
+      <c r="B36" s="164" t="s">
+        <v>273</v>
+      </c>
+      <c r="C36" s="164">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="143"/>
+      <c r="B37" s="173" t="s">
+        <v>274</v>
+      </c>
+      <c r="C37" s="173">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="143"/>
+      <c r="B38" s="168" t="s">
+        <v>275</v>
+      </c>
+      <c r="C38" s="168">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="143"/>
+      <c r="B39" s="168" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" s="168">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="143"/>
+      <c r="B40" s="164" t="s">
+        <v>277</v>
+      </c>
+      <c r="C40" s="164">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="143"/>
+      <c r="B41" s="168" t="s">
+        <v>278</v>
+      </c>
+      <c r="C41" s="168">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="147" t="s">
+        <v>279</v>
+      </c>
+      <c r="B42" s="165" t="s">
+        <v>280</v>
+      </c>
+      <c r="C42" s="153">
+        <v>6</v>
+      </c>
+      <c r="D42" s="149">
+        <f>SUM(C42:C47)</f>
+        <v>25</v>
+      </c>
+      <c r="E42" s="150">
+        <f t="shared" ref="E42" si="0">D42/C$1</f>
+        <v>2.3714440196924712E-4</v>
+      </c>
+      <c r="G42" s="166" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="143"/>
+      <c r="B43" s="165" t="s">
+        <v>281</v>
+      </c>
+      <c r="C43" s="153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="143"/>
+      <c r="B44" s="165" t="s">
+        <v>282</v>
+      </c>
+      <c r="C44" s="153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="143"/>
+      <c r="B45" s="165" t="s">
+        <v>283</v>
+      </c>
+      <c r="C45" s="153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="143"/>
+      <c r="B46" s="165" t="s">
+        <v>284</v>
+      </c>
+      <c r="C46" s="153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="143"/>
+      <c r="B47" s="165" t="s">
+        <v>285</v>
+      </c>
+      <c r="C47" s="153">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="147" t="s">
+        <v>286</v>
+      </c>
+      <c r="B48" s="164" t="s">
+        <v>287</v>
+      </c>
+      <c r="C48" s="164">
+        <v>3</v>
+      </c>
+      <c r="D48" s="149">
+        <f>SUM(C48:C49)</f>
+        <v>49</v>
+      </c>
+      <c r="E48" s="150">
+        <f t="shared" ref="E48:E51" si="1">D48/C$1</f>
+        <v>4.6480302785972436E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="143"/>
+      <c r="B49" s="164" t="s">
+        <v>288</v>
+      </c>
+      <c r="C49" s="164">
+        <v>46</v>
+      </c>
+      <c r="E49" s="146"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="147" t="s">
+        <v>289</v>
+      </c>
+      <c r="B50" s="153" t="s">
+        <v>290</v>
+      </c>
+      <c r="C50" s="153">
+        <v>2</v>
+      </c>
+      <c r="D50" s="148">
+        <v>2</v>
+      </c>
+      <c r="E50" s="150">
+        <f t="shared" si="1"/>
+        <v>1.8971552157539768E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.4" thickBot="1">
+      <c r="A51" s="147" t="s">
+        <v>291</v>
+      </c>
+      <c r="B51" s="153" t="s">
+        <v>292</v>
+      </c>
+      <c r="C51" s="153">
+        <v>13</v>
+      </c>
+      <c r="D51" s="148">
+        <v>13</v>
+      </c>
+      <c r="E51" s="150">
+        <f t="shared" si="1"/>
+        <v>1.233150890240085E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="175" t="s">
+        <v>293</v>
+      </c>
+      <c r="B52" s="176" t="s">
+        <v>294</v>
+      </c>
+      <c r="C52" s="176">
+        <v>90</v>
+      </c>
+      <c r="D52" s="177">
+        <f>SUM(C52:C57)</f>
+        <v>13292</v>
+      </c>
+      <c r="E52" s="178">
+        <f>D52/C$1</f>
+        <v>0.1260849356390093</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="179"/>
+      <c r="B53" s="180" t="s">
+        <v>295</v>
+      </c>
+      <c r="C53" s="180">
+        <v>10362</v>
+      </c>
+      <c r="D53" s="181"/>
+      <c r="E53" s="182"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="179"/>
+      <c r="B54" s="180" t="s">
+        <v>296</v>
+      </c>
+      <c r="C54" s="180">
+        <v>309</v>
+      </c>
+      <c r="D54" s="181"/>
+      <c r="E54" s="182"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="179"/>
+      <c r="B55" s="180" t="s">
+        <v>297</v>
+      </c>
+      <c r="C55" s="180">
+        <v>1320</v>
+      </c>
+      <c r="D55" s="181"/>
+      <c r="E55" s="182"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="179"/>
+      <c r="B56" s="180" t="s">
+        <v>298</v>
+      </c>
+      <c r="C56" s="180">
+        <v>1147</v>
+      </c>
+      <c r="D56" s="181"/>
+      <c r="E56" s="182"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="179"/>
+      <c r="B57" s="180" t="s">
+        <v>299</v>
+      </c>
+      <c r="C57" s="180">
+        <v>64</v>
+      </c>
+      <c r="D57" s="181"/>
+      <c r="E57" s="182"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="183" t="s">
+        <v>300</v>
+      </c>
+      <c r="B58" s="180" t="s">
+        <v>301</v>
+      </c>
+      <c r="C58" s="180">
+        <v>1878</v>
+      </c>
+      <c r="D58" s="151">
+        <f>SUM(C58:C62)</f>
+        <v>19812</v>
+      </c>
+      <c r="E58" s="184">
+        <f>D58/C1</f>
+        <v>0.18793219567258895</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="179"/>
+      <c r="B59" s="180" t="s">
+        <v>302</v>
+      </c>
+      <c r="C59" s="180">
+        <v>130</v>
+      </c>
+      <c r="D59" s="181"/>
+      <c r="E59" s="182"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="179"/>
+      <c r="B60" s="180" t="s">
+        <v>303</v>
+      </c>
+      <c r="C60" s="180">
+        <v>3939</v>
+      </c>
+      <c r="D60" s="181"/>
+      <c r="E60" s="182"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="179"/>
+      <c r="B61" s="180" t="s">
+        <v>304</v>
+      </c>
+      <c r="C61" s="180">
+        <v>2696</v>
+      </c>
+      <c r="D61" s="181"/>
+      <c r="E61" s="182"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="179"/>
+      <c r="B62" s="180" t="s">
+        <v>305</v>
+      </c>
+      <c r="C62" s="180">
+        <v>11169</v>
+      </c>
+      <c r="D62" s="181"/>
+      <c r="E62" s="182"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="183" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="180" t="s">
+        <v>306</v>
+      </c>
+      <c r="C63" s="180">
+        <v>1110</v>
+      </c>
+      <c r="D63" s="151">
+        <f>SUM(C63:C77)</f>
+        <v>42741</v>
+      </c>
+      <c r="E63" s="184">
+        <f>D63/C$1</f>
+        <v>0.40543155538270365</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="179"/>
+      <c r="B64" s="180" t="s">
+        <v>307</v>
+      </c>
+      <c r="C64" s="180">
+        <v>3979</v>
+      </c>
+      <c r="D64" s="181"/>
+      <c r="E64" s="182"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="179"/>
+      <c r="B65" s="180" t="s">
+        <v>308</v>
+      </c>
+      <c r="C65" s="180">
+        <v>913</v>
+      </c>
+      <c r="D65" s="181"/>
+      <c r="E65" s="182"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="179"/>
+      <c r="B66" s="180" t="s">
+        <v>309</v>
+      </c>
+      <c r="C66" s="180">
+        <v>1550</v>
+      </c>
+      <c r="D66" s="181"/>
+      <c r="E66" s="182"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="179"/>
+      <c r="B67" s="180" t="s">
+        <v>310</v>
+      </c>
+      <c r="C67" s="180">
+        <v>460</v>
+      </c>
+      <c r="D67" s="181"/>
+      <c r="E67" s="182"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="179"/>
+      <c r="B68" s="180" t="s">
+        <v>311</v>
+      </c>
+      <c r="C68" s="180">
+        <v>2356</v>
+      </c>
+      <c r="D68" s="181"/>
+      <c r="E68" s="182"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="179"/>
+      <c r="B69" s="180" t="s">
+        <v>312</v>
+      </c>
+      <c r="C69" s="180">
+        <v>3940</v>
+      </c>
+      <c r="D69" s="181"/>
+      <c r="E69" s="182"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="179"/>
+      <c r="B70" s="180" t="s">
+        <v>313</v>
+      </c>
+      <c r="C70" s="180">
+        <v>154</v>
+      </c>
+      <c r="D70" s="181"/>
+      <c r="E70" s="182"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="179"/>
+      <c r="B71" s="180" t="s">
+        <v>314</v>
+      </c>
+      <c r="C71" s="180">
+        <v>449</v>
+      </c>
+      <c r="D71" s="181"/>
+      <c r="E71" s="182"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="179"/>
+      <c r="B72" s="180" t="s">
+        <v>315</v>
+      </c>
+      <c r="C72" s="180">
+        <v>3405</v>
+      </c>
+      <c r="D72" s="181"/>
+      <c r="E72" s="182"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="179"/>
+      <c r="B73" s="180" t="s">
+        <v>316</v>
+      </c>
+      <c r="C73" s="180">
+        <v>9302</v>
+      </c>
+      <c r="D73" s="181"/>
+      <c r="E73" s="182"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="179"/>
+      <c r="B74" s="180" t="s">
+        <v>317</v>
+      </c>
+      <c r="C74" s="180">
+        <v>7904</v>
+      </c>
+      <c r="D74" s="181"/>
+      <c r="E74" s="182"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="179"/>
+      <c r="B75" s="180" t="s">
+        <v>318</v>
+      </c>
+      <c r="C75" s="180">
+        <v>73</v>
+      </c>
+      <c r="D75" s="181"/>
+      <c r="E75" s="182"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="179"/>
+      <c r="B76" s="180" t="s">
+        <v>319</v>
+      </c>
+      <c r="C76" s="180">
+        <v>4155</v>
+      </c>
+      <c r="D76" s="181"/>
+      <c r="E76" s="182"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.4" thickBot="1">
+      <c r="A77" s="185"/>
+      <c r="B77" s="186" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="186">
+        <v>2991</v>
+      </c>
+      <c r="D77" s="187"/>
+      <c r="E77" s="188"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="147" t="s">
+        <v>320</v>
+      </c>
+      <c r="B78" s="168" t="s">
+        <v>321</v>
+      </c>
+      <c r="C78" s="153">
+        <v>1</v>
+      </c>
+      <c r="D78" s="149">
+        <f>SUM(C78:C83)</f>
+        <v>9</v>
+      </c>
+      <c r="E78" s="150">
+        <f>D78/C$1</f>
+        <v>8.537198470892896E-5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="143"/>
+      <c r="B79" s="168" t="s">
+        <v>322</v>
+      </c>
+      <c r="C79" s="153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="143"/>
+      <c r="B80" s="168" t="s">
+        <v>323</v>
+      </c>
+      <c r="C80" s="153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="143"/>
+      <c r="B81" s="168" t="s">
+        <v>324</v>
+      </c>
+      <c r="C81" s="153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="143"/>
+      <c r="B82" s="168" t="s">
+        <v>325</v>
+      </c>
+      <c r="C82" s="153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="143"/>
+      <c r="B83" s="168" t="s">
+        <v>326</v>
+      </c>
+      <c r="C83" s="153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="147" t="s">
+        <v>327</v>
+      </c>
+      <c r="B84" s="168" t="s">
+        <v>328</v>
+      </c>
+      <c r="C84" s="153">
+        <v>1</v>
+      </c>
+      <c r="D84" s="149">
+        <f>SUM(C84:C86)</f>
+        <v>3</v>
+      </c>
+      <c r="E84" s="150">
+        <f>D84/C$1</f>
+        <v>2.8457328236309652E-5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="143"/>
+      <c r="B85" s="168" t="s">
+        <v>329</v>
+      </c>
+      <c r="C85" s="153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="143"/>
+      <c r="B86" s="168" t="s">
+        <v>330</v>
+      </c>
+      <c r="C86" s="153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="147" t="s">
+        <v>331</v>
+      </c>
+      <c r="B87" s="168" t="s">
+        <v>332</v>
+      </c>
+      <c r="C87" s="153">
+        <v>7</v>
+      </c>
+      <c r="D87" s="149">
+        <f>SUM(C87:C91)</f>
+        <v>17</v>
+      </c>
+      <c r="E87" s="150">
+        <f>D87/C$1</f>
+        <v>1.6125819333908805E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="143"/>
+      <c r="B88" s="168" t="s">
+        <v>333</v>
+      </c>
+      <c r="C88" s="153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="143"/>
+      <c r="B89" s="168" t="s">
+        <v>334</v>
+      </c>
+      <c r="C89" s="153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="143"/>
+      <c r="B90" s="168" t="s">
+        <v>275</v>
+      </c>
+      <c r="C90" s="153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="143"/>
+      <c r="B91" s="168" t="s">
+        <v>335</v>
+      </c>
+      <c r="C91" s="153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="147" t="s">
+        <v>336</v>
+      </c>
+      <c r="B92" s="153" t="s">
+        <v>337</v>
+      </c>
+      <c r="C92" s="153">
+        <v>171</v>
+      </c>
+      <c r="D92" s="149">
+        <f>SUM(C92:C95)</f>
+        <v>1899</v>
+      </c>
+      <c r="E92" s="150">
+        <f>D92/C$1</f>
+        <v>1.801348877358401E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="143"/>
+      <c r="B93" s="153" t="s">
+        <v>338</v>
+      </c>
+      <c r="C93" s="153">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="143"/>
+      <c r="B94" s="153" t="s">
+        <v>339</v>
+      </c>
+      <c r="C94" s="153">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="143"/>
+      <c r="B95" s="153" t="s">
+        <v>340</v>
+      </c>
+      <c r="C95" s="153">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="147" t="s">
+        <v>341</v>
+      </c>
+      <c r="B96" s="153" t="s">
+        <v>342</v>
+      </c>
+      <c r="C96" s="153">
+        <v>372</v>
+      </c>
+      <c r="D96" s="149">
+        <f>SUM(C96:C111)</f>
+        <v>5283</v>
+      </c>
+      <c r="E96" s="150">
+        <f>D96/C$1</f>
+        <v>5.0113355024141298E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="143"/>
+      <c r="B97" s="153" t="s">
+        <v>343</v>
+      </c>
+      <c r="C97" s="153">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="143"/>
+      <c r="B98" s="153" t="s">
+        <v>344</v>
+      </c>
+      <c r="C98" s="153">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="143"/>
+      <c r="B99" s="153" t="s">
+        <v>345</v>
+      </c>
+      <c r="C99" s="153">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="143"/>
+      <c r="B100" s="153" t="s">
+        <v>346</v>
+      </c>
+      <c r="C100" s="153">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="143"/>
+      <c r="B101" s="153" t="s">
+        <v>347</v>
+      </c>
+      <c r="C101" s="153">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="143"/>
+      <c r="B102" s="153" t="s">
+        <v>348</v>
+      </c>
+      <c r="C102" s="153">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="143"/>
+      <c r="B103" s="153" t="s">
+        <v>349</v>
+      </c>
+      <c r="C103" s="153">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="143"/>
+      <c r="B104" s="153" t="s">
+        <v>350</v>
+      </c>
+      <c r="C104" s="153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="143"/>
+      <c r="B105" s="153" t="s">
+        <v>351</v>
+      </c>
+      <c r="C105" s="153">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="143"/>
+      <c r="B106" s="153" t="s">
+        <v>352</v>
+      </c>
+      <c r="C106" s="153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="143"/>
+      <c r="B107" s="153" t="s">
+        <v>353</v>
+      </c>
+      <c r="C107" s="153">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="143"/>
+      <c r="B108" s="153" t="s">
+        <v>354</v>
+      </c>
+      <c r="C108" s="153">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="143"/>
+      <c r="B109" s="153" t="s">
+        <v>355</v>
+      </c>
+      <c r="C109" s="153">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="143"/>
+      <c r="B110" s="153" t="s">
+        <v>356</v>
+      </c>
+      <c r="C110" s="153">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="143"/>
+      <c r="B111" s="153" t="s">
+        <v>357</v>
+      </c>
+      <c r="C111" s="153">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="147" t="s">
+        <v>358</v>
+      </c>
+      <c r="B112" s="169" t="s">
+        <v>359</v>
+      </c>
+      <c r="C112" s="153">
+        <v>7</v>
+      </c>
+      <c r="D112" s="149">
+        <f>SUM(C112:C114)</f>
+        <v>2442</v>
+      </c>
+      <c r="E112" s="150">
+        <f>D112/C$1</f>
+        <v>2.3164265184356058E-2</v>
+      </c>
+      <c r="G112" s="160" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="143"/>
+      <c r="B113" s="170" t="s">
+        <v>360</v>
+      </c>
+      <c r="C113" s="153">
+        <v>1889</v>
+      </c>
+      <c r="G113" s="169" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="143"/>
+      <c r="B114" s="169" t="s">
+        <v>361</v>
+      </c>
+      <c r="C114" s="153">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="147" t="s">
+        <v>362</v>
+      </c>
+      <c r="B115" s="168" t="s">
+        <v>363</v>
+      </c>
+      <c r="C115" s="153">
+        <v>5</v>
+      </c>
+      <c r="D115" s="149">
+        <f>C115</f>
+        <v>5</v>
+      </c>
+      <c r="E115" s="150">
+        <f>D115/C$1</f>
+        <v>4.7428880393849424E-5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="147" t="s">
+        <v>364</v>
+      </c>
+      <c r="B116" s="158" t="s">
+        <v>365</v>
+      </c>
+      <c r="C116" s="153">
+        <v>850</v>
+      </c>
+      <c r="D116" s="149">
+        <f>SUM(C116:C121)</f>
+        <v>3127</v>
+      </c>
+      <c r="E116" s="150">
+        <f>D116/C$1</f>
+        <v>2.9662021798313429E-2</v>
+      </c>
+      <c r="G116" s="159" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="143"/>
+      <c r="B117" s="158" t="s">
+        <v>366</v>
+      </c>
+      <c r="C117" s="153">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="143"/>
+      <c r="B118" s="158" t="s">
+        <v>367</v>
+      </c>
+      <c r="C118" s="153">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="143"/>
+      <c r="B119" s="158" t="s">
+        <v>368</v>
+      </c>
+      <c r="C119" s="153">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="143"/>
+      <c r="B120" s="158" t="s">
+        <v>369</v>
+      </c>
+      <c r="C120" s="153">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="143"/>
+      <c r="B121" s="158" t="s">
+        <v>370</v>
+      </c>
+      <c r="C121" s="153">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="147" t="s">
+        <v>371</v>
+      </c>
+      <c r="B122" s="156" t="s">
+        <v>372</v>
+      </c>
+      <c r="C122" s="153">
+        <v>2212</v>
+      </c>
+      <c r="D122" s="149">
+        <f>SUM(C122:C132)</f>
+        <v>5490</v>
+      </c>
+      <c r="E122" s="150">
+        <f>D122/C$1</f>
+        <v>5.2076910672446665E-2</v>
+      </c>
+      <c r="G122" s="157" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="143"/>
+      <c r="B123" s="156" t="s">
+        <v>373</v>
+      </c>
+      <c r="C123" s="153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="143"/>
+      <c r="B124" s="156" t="s">
+        <v>374</v>
+      </c>
+      <c r="C124" s="153">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="143"/>
+      <c r="B125" s="156" t="s">
+        <v>375</v>
+      </c>
+      <c r="C125" s="153">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="143"/>
+      <c r="B126" s="156" t="s">
+        <v>376</v>
+      </c>
+      <c r="C126" s="153">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="143"/>
+      <c r="B127" s="156" t="s">
+        <v>377</v>
+      </c>
+      <c r="C127" s="153">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="143"/>
+      <c r="B128" s="156" t="s">
+        <v>378</v>
+      </c>
+      <c r="C128" s="153">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="143"/>
+      <c r="B129" s="156" t="s">
+        <v>379</v>
+      </c>
+      <c r="C129" s="153">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="143"/>
+      <c r="B130" s="156" t="s">
+        <v>380</v>
+      </c>
+      <c r="C130" s="153">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="143"/>
+      <c r="B131" s="156" t="s">
+        <v>381</v>
+      </c>
+      <c r="C131" s="153">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="143"/>
+      <c r="B132" s="156" t="s">
+        <v>382</v>
+      </c>
+      <c r="C132" s="153">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="147" t="s">
+        <v>383</v>
+      </c>
+      <c r="B133" s="156" t="s">
+        <v>384</v>
+      </c>
+      <c r="C133" s="153">
+        <v>6</v>
+      </c>
+      <c r="D133" s="149">
+        <f>SUM(C133:C134)</f>
+        <v>54</v>
+      </c>
+      <c r="E133" s="150">
+        <f>D133/C$1</f>
+        <v>5.1223190825357373E-4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="143"/>
+      <c r="B134" s="156" t="s">
+        <v>385</v>
+      </c>
+      <c r="C134" s="153">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:C134" xr:uid="{461CC462-EE6D-404A-AE02-6E6ACAC1E6E8}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D42 D48" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A375C8-869D-4066-91F9-FA9320E87AD6}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:M44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozenSplit"/>
+      <selection activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="24.1328125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="10.53125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="45"/>
+    <col min="4" max="4" width="1.9296875" style="45" customWidth="1"/>
+    <col min="5" max="5" width="93.33203125" style="47" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="24" customHeight="1">
+      <c r="A1" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="44"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="67">
+        <v>1371980</v>
+      </c>
+      <c r="D2" s="46"/>
+    </row>
+    <row r="3" spans="1:13" ht="8.25" customHeight="1">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="128" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="128" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="128"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="128"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="128"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+    </row>
+    <row r="8" spans="1:13" ht="13.15">
+      <c r="A8" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="38.75" customHeight="1">
+      <c r="A9" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="38.75" customHeight="1">
+      <c r="A10" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="57" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="38.75" customHeight="1">
+      <c r="A11" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="57" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="38.75" customHeight="1">
+      <c r="A12" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="38.75" customHeight="1">
+      <c r="A13" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="38.75" customHeight="1">
+      <c r="A14" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="38.75" customHeight="1">
+      <c r="A15" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="38.75" customHeight="1">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="53"/>
+    </row>
+    <row r="17" spans="1:5" ht="38.75" customHeight="1">
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="57"/>
+    </row>
+    <row r="18" spans="1:5" ht="38.75" customHeight="1">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="57"/>
+    </row>
+    <row r="19" spans="1:5" ht="38.75" customHeight="1">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="57"/>
+    </row>
+    <row r="20" spans="1:5" ht="38.75" customHeight="1">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="53"/>
+    </row>
+    <row r="21" spans="1:5" ht="38.75" customHeight="1">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="53"/>
+    </row>
+    <row r="22" spans="1:5" ht="38.75" customHeight="1">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="65"/>
+    </row>
+    <row r="23" spans="1:5" ht="38.75" customHeight="1">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="62"/>
+    </row>
+    <row r="24" spans="1:5" ht="38.75" customHeight="1">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="63"/>
+    </row>
+    <row r="25" spans="1:5" ht="38.75" customHeight="1">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="62"/>
+    </row>
+    <row r="26" spans="1:5" ht="38.75" customHeight="1">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="63"/>
+    </row>
+    <row r="27" spans="1:5" ht="38.75" customHeight="1">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="62"/>
+    </row>
+    <row r="28" spans="1:5" ht="38.75" customHeight="1">
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="64"/>
+    </row>
+    <row r="29" spans="1:5" ht="38.75" customHeight="1">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="62"/>
+    </row>
+    <row r="30" spans="1:5" ht="38.75" customHeight="1">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="63"/>
+    </row>
+    <row r="31" spans="1:5" ht="38.75" customHeight="1">
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="62"/>
+    </row>
+    <row r="32" spans="1:5" ht="38.75" customHeight="1">
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="63"/>
+    </row>
+    <row r="33" spans="1:5" ht="38.75" customHeight="1">
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="53"/>
+    </row>
+    <row r="35" spans="1:5" ht="38.25">
+      <c r="A35" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="55"/>
+    </row>
+    <row r="36" spans="1:5" ht="51.4">
+      <c r="A36" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="55"/>
+    </row>
+    <row r="37" spans="1:5" ht="25.5">
+      <c r="A37" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="55"/>
+    </row>
+    <row r="38" spans="1:5" ht="38.25">
+      <c r="A38" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="55"/>
+    </row>
+    <row r="39" spans="1:5" ht="63.75">
+      <c r="A39" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="55"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C4:M7"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8F9103-AA65-4087-9868-87054B4C249D}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.15"/>
+  <cols>
+    <col min="1" max="1" width="22.06640625" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="10.6640625" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D878A8-606F-46BE-97F6-742F75313951}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" location="sklearn.utils.multiclass.type_of_target" tooltip="sklearn.utils.multiclass.type_of_target" display="https://scikit-learn.org/stable/modules/generated/sklearn.utils.multiclass.type_of_target.html - sklearn.utils.multiclass.type_of_target" xr:uid="{F229B002-F83D-4B59-A051-65B2F2ADDCCE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151FBFF3-87CF-4B71-ACB1-07A31BB378A7}">
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -3225,7 +6143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3773F45-9F2F-4FEF-87D9-C0A66BFAB18B}">
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -3582,32 +6500,32 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="96" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="97" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="97" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="99" customHeight="1">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="98" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="97" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="97" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3621,7 +6539,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9216B8-593A-42B1-9669-82D95B36F21F}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="92" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="92" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
@@ -3640,26 +6560,26 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="48.75" customHeight="1">
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="99"/>
-      <c r="I2" s="100" t="s">
+      <c r="G2" s="119"/>
+      <c r="I2" s="120" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
     </row>
     <row r="3" spans="1:11" ht="26.75" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:11" s="13" customFormat="1" ht="26.75" customHeight="1" thickBot="1">
       <c r="B4" s="25"/>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118"/>
       <c r="I4" s="14" t="s">
         <v>107</v>
       </c>
@@ -3833,7 +6753,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3888,7 +6808,7 @@
       <c r="A7" s="78">
         <v>1</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="122" t="s">
         <v>186</v>
       </c>
       <c r="C7" s="85"/>
@@ -3900,7 +6820,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="102"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="85"/>
       <c r="D8" s="82" t="s">
         <v>191</v>
@@ -3910,11 +6830,11 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="102"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="85"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="102"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="85"/>
       <c r="E10" s="83"/>
       <c r="F10" s="83" t="s">
@@ -3929,7 +6849,7 @@
       <c r="K10" s="84"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="102"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="85"/>
       <c r="E11" s="83" t="s">
         <v>164</v>
@@ -3941,7 +6861,7 @@
       <c r="H11" s="83"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="102"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="85"/>
       <c r="E12" s="83" t="s">
         <v>165</v>
@@ -3953,7 +6873,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="B13" s="102"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="85"/>
       <c r="E13" s="83" t="s">
         <v>166</v>
@@ -3963,7 +6883,7 @@
       <c r="H13" s="83"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="B14" s="102"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="85"/>
       <c r="E14" s="83" t="s">
         <v>15</v>
@@ -3973,7 +6893,7 @@
       <c r="H14" s="83"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="102"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="85"/>
       <c r="E15" s="83"/>
       <c r="F15" s="83"/>
@@ -3981,7 +6901,7 @@
       <c r="H15" s="83"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="102"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="85"/>
       <c r="E16" s="83" t="s">
         <v>169</v>
@@ -3999,7 +6919,7 @@
       <c r="A18" s="78">
         <v>2</v>
       </c>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="122" t="s">
         <v>195</v>
       </c>
       <c r="C18" s="85"/>
@@ -4011,7 +6931,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="B19" s="102"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="85"/>
       <c r="D19" s="82" t="s">
         <v>171</v>
@@ -4021,7 +6941,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="B20" s="102"/>
+      <c r="B20" s="122"/>
       <c r="C20" s="85"/>
       <c r="K20" s="84"/>
     </row>
@@ -4038,7 +6958,7 @@
       <c r="A23" s="78">
         <v>3</v>
       </c>
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="122" t="s">
         <v>183</v>
       </c>
       <c r="C23" s="85"/>
@@ -4049,16 +6969,16 @@
       <c r="F23" s="89"/>
       <c r="G23" s="89"/>
       <c r="H23" s="89"/>
-      <c r="K23" s="101" t="s">
+      <c r="K23" s="121" t="s">
         <v>184</v>
       </c>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="121"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="B24" s="102"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="85"/>
       <c r="D24" s="89" t="s">
         <v>200</v>
@@ -4067,42 +6987,42 @@
       <c r="F24" s="89"/>
       <c r="G24" s="89"/>
       <c r="H24" s="89"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="121"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="B25" s="102"/>
+      <c r="B25" s="122"/>
       <c r="C25" s="85"/>
       <c r="D25" s="90"/>
       <c r="E25" s="88"/>
       <c r="F25" s="88"/>
       <c r="G25" s="88"/>
       <c r="H25" s="88"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
+      <c r="K25" s="121"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="121"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="B26" s="102"/>
+      <c r="B26" s="122"/>
       <c r="C26" s="85"/>
       <c r="D26" s="88"/>
       <c r="E26" s="88"/>
       <c r="F26" s="88"/>
       <c r="G26" s="88"/>
       <c r="H26" s="88"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="121"/>
     </row>
     <row r="27" spans="1:15" ht="14.25" customHeight="1">
-      <c r="B27" s="102"/>
+      <c r="B27" s="122"/>
       <c r="C27" s="85"/>
       <c r="D27" s="88"/>
       <c r="E27" s="91" t="s">
@@ -4117,7 +7037,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="B28" s="102"/>
+      <c r="B28" s="122"/>
       <c r="C28" s="85"/>
       <c r="D28" s="92" t="s">
         <v>167</v>
@@ -4128,7 +7048,7 @@
       <c r="H28" s="91"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="B29" s="102"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="85"/>
       <c r="D29" s="91" t="s">
         <v>175</v>
@@ -4139,7 +7059,7 @@
       <c r="H29" s="91"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="B30" s="102"/>
+      <c r="B30" s="122"/>
       <c r="C30" s="85"/>
       <c r="D30" s="91" t="s">
         <v>176</v>
@@ -4150,7 +7070,7 @@
       <c r="H30" s="91"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="B31" s="102"/>
+      <c r="B31" s="122"/>
       <c r="C31" s="85"/>
       <c r="D31" s="91" t="s">
         <v>174</v>
@@ -4161,7 +7081,7 @@
       <c r="H31" s="91"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="B32" s="102"/>
+      <c r="B32" s="122"/>
       <c r="C32" s="85"/>
       <c r="D32" s="91"/>
       <c r="E32" s="91"/>
@@ -4170,7 +7090,7 @@
       <c r="H32" s="91"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="B33" s="102"/>
+      <c r="B33" s="122"/>
       <c r="C33" s="85"/>
       <c r="D33" s="91" t="s">
         <v>177</v>
@@ -4181,7 +7101,7 @@
       <c r="H33" s="91"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="B34" s="102"/>
+      <c r="B34" s="122"/>
       <c r="C34" s="85"/>
       <c r="D34" s="88" t="s">
         <v>174</v>
@@ -4192,7 +7112,7 @@
       <c r="H34" s="88"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="B35" s="102"/>
+      <c r="B35" s="122"/>
       <c r="C35" s="85"/>
       <c r="D35" s="88"/>
       <c r="E35" s="91" t="s">
@@ -4207,7 +7127,7 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="B36" s="102"/>
+      <c r="B36" s="122"/>
       <c r="C36" s="85"/>
       <c r="D36" s="92" t="s">
         <v>168</v>
@@ -4218,7 +7138,7 @@
       <c r="H36" s="91"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="B37" s="102"/>
+      <c r="B37" s="122"/>
       <c r="C37" s="85"/>
       <c r="D37" s="91" t="s">
         <v>179</v>
@@ -4229,7 +7149,7 @@
       <c r="H37" s="91"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="B38" s="102"/>
+      <c r="B38" s="122"/>
       <c r="C38" s="85"/>
       <c r="D38" s="91" t="s">
         <v>180</v>
@@ -4240,7 +7160,7 @@
       <c r="H38" s="91"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="B39" s="102"/>
+      <c r="B39" s="122"/>
       <c r="C39" s="85"/>
       <c r="D39" s="91" t="s">
         <v>174</v>
@@ -4251,7 +7171,7 @@
       <c r="H39" s="91"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="B40" s="102"/>
+      <c r="B40" s="122"/>
       <c r="C40" s="85"/>
       <c r="D40" s="91"/>
       <c r="E40" s="91"/>
@@ -4260,7 +7180,7 @@
       <c r="H40" s="91"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="B41" s="102"/>
+      <c r="B41" s="122"/>
       <c r="C41" s="85"/>
       <c r="D41" s="91" t="s">
         <v>181</v>
@@ -4278,14 +7198,14 @@
         <v>4</v>
       </c>
       <c r="B43" s="86"/>
-      <c r="D43" s="101" t="s">
+      <c r="D43" s="121" t="s">
         <v>201</v>
       </c>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="121"/>
       <c r="J43" s="79"/>
       <c r="K43" s="82" t="s">
         <v>202</v>
@@ -4293,12 +7213,12 @@
     </row>
     <row r="44" spans="1:11">
       <c r="B44" s="86"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="101"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="121"/>
       <c r="J44" s="79"/>
     </row>
     <row r="45" spans="1:11">
@@ -4316,25 +7236,25 @@
         <v>5</v>
       </c>
       <c r="B46" s="86"/>
-      <c r="D46" s="101" t="s">
+      <c r="D46" s="121" t="s">
         <v>204</v>
       </c>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="101"/>
+      <c r="E46" s="121"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="121"/>
+      <c r="H46" s="121"/>
+      <c r="I46" s="121"/>
       <c r="K46" s="82" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="101"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="121"/>
+      <c r="H47" s="121"/>
+      <c r="I47" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4352,6 +7272,486 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE981C3-09C8-479B-98BA-5D28E3AB0CC3}">
+  <dimension ref="B1:L13"/>
+  <sheetViews>
+    <sheetView zoomScale="113" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.9296875" style="99" customWidth="1"/>
+    <col min="2" max="2" width="12.796875" style="99" customWidth="1"/>
+    <col min="3" max="3" width="7.265625" style="99" customWidth="1"/>
+    <col min="4" max="4" width="3.59765625" style="99" customWidth="1"/>
+    <col min="5" max="5" width="12.796875" style="99" customWidth="1"/>
+    <col min="6" max="6" width="7.73046875" style="99" customWidth="1"/>
+    <col min="7" max="7" width="4.53125" style="99" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="99" customWidth="1"/>
+    <col min="9" max="9" width="7.53125" style="99" customWidth="1"/>
+    <col min="10" max="10" width="3.265625" style="99" customWidth="1"/>
+    <col min="11" max="11" width="13.06640625" style="99" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="99" customWidth="1"/>
+    <col min="13" max="16384" width="10.6640625" style="99"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" s="102" customFormat="1">
+      <c r="B1" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="123"/>
+      <c r="E1" s="123" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="123"/>
+      <c r="H1" s="123" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1" s="123"/>
+      <c r="K1" s="123" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1" s="123"/>
+    </row>
+    <row r="2" spans="2:12">
+      <c r="B2" s="104">
+        <v>751471001</v>
+      </c>
+      <c r="C2" s="107">
+        <v>816</v>
+      </c>
+      <c r="E2" s="101">
+        <v>933706001</v>
+      </c>
+      <c r="F2" s="100">
+        <v>500</v>
+      </c>
+      <c r="H2" s="101">
+        <v>909370001</v>
+      </c>
+      <c r="I2" s="100">
+        <v>1139</v>
+      </c>
+      <c r="K2" s="104">
+        <v>751471001</v>
+      </c>
+      <c r="L2" s="111">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="109">
+        <v>706016001</v>
+      </c>
+      <c r="C3" s="100">
+        <v>755</v>
+      </c>
+      <c r="E3" s="115">
+        <v>898694001</v>
+      </c>
+      <c r="F3" s="100">
+        <v>149</v>
+      </c>
+      <c r="H3" s="101">
+        <v>865799006</v>
+      </c>
+      <c r="I3" s="100">
+        <v>482</v>
+      </c>
+      <c r="K3" s="105">
+        <v>915526001</v>
+      </c>
+      <c r="L3" s="100">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="108">
+        <v>915529003</v>
+      </c>
+      <c r="C4" s="100">
+        <v>717</v>
+      </c>
+      <c r="E4" s="104">
+        <v>751471001</v>
+      </c>
+      <c r="F4" s="111">
+        <v>138</v>
+      </c>
+      <c r="H4" s="112">
+        <v>918522001</v>
+      </c>
+      <c r="I4" s="100">
+        <v>424</v>
+      </c>
+      <c r="K4" s="106">
+        <v>751471043</v>
+      </c>
+      <c r="L4" s="100">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="115">
+        <v>898694001</v>
+      </c>
+      <c r="C5" s="100">
+        <v>708</v>
+      </c>
+      <c r="E5" s="105">
+        <v>915526001</v>
+      </c>
+      <c r="F5" s="100">
+        <v>128</v>
+      </c>
+      <c r="H5" s="110">
+        <v>924243001</v>
+      </c>
+      <c r="I5" s="100">
+        <v>414</v>
+      </c>
+      <c r="K5" s="108">
+        <v>915529003</v>
+      </c>
+      <c r="L5" s="100">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="101">
+        <v>916468003</v>
+      </c>
+      <c r="C6" s="100">
+        <v>689</v>
+      </c>
+      <c r="E6" s="101">
+        <v>715624053</v>
+      </c>
+      <c r="F6" s="100">
+        <v>123</v>
+      </c>
+      <c r="H6" s="101">
+        <v>809238001</v>
+      </c>
+      <c r="I6" s="100">
+        <v>386</v>
+      </c>
+      <c r="K6" s="109">
+        <v>706016001</v>
+      </c>
+      <c r="L6" s="100">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="106">
+        <v>751471043</v>
+      </c>
+      <c r="C7" s="100">
+        <v>680</v>
+      </c>
+      <c r="E7" s="101">
+        <v>715624001</v>
+      </c>
+      <c r="F7" s="100">
+        <v>102</v>
+      </c>
+      <c r="H7" s="113">
+        <v>448509014</v>
+      </c>
+      <c r="I7" s="100">
+        <v>386</v>
+      </c>
+      <c r="K7" s="103">
+        <v>918292001</v>
+      </c>
+      <c r="L7" s="100">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="105">
+        <v>915526001</v>
+      </c>
+      <c r="C8" s="100">
+        <v>673</v>
+      </c>
+      <c r="E8" s="108">
+        <v>915529003</v>
+      </c>
+      <c r="F8" s="100">
+        <v>92</v>
+      </c>
+      <c r="H8" s="104">
+        <v>751471001</v>
+      </c>
+      <c r="I8" s="111">
+        <v>367</v>
+      </c>
+      <c r="K8" s="110">
+        <v>924243001</v>
+      </c>
+      <c r="L8" s="100">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="101">
+        <v>915526002</v>
+      </c>
+      <c r="C9" s="100">
+        <v>658</v>
+      </c>
+      <c r="E9" s="109">
+        <v>706016001</v>
+      </c>
+      <c r="F9" s="100">
+        <v>88</v>
+      </c>
+      <c r="H9" s="101">
+        <v>809238005</v>
+      </c>
+      <c r="I9" s="100">
+        <v>366</v>
+      </c>
+      <c r="K9" s="112">
+        <v>918522001</v>
+      </c>
+      <c r="L9" s="100">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="103">
+        <v>918292001</v>
+      </c>
+      <c r="C10" s="100">
+        <v>654</v>
+      </c>
+      <c r="E10" s="101">
+        <v>889460003</v>
+      </c>
+      <c r="F10" s="100">
+        <v>87</v>
+      </c>
+      <c r="H10" s="103">
+        <v>918292001</v>
+      </c>
+      <c r="I10" s="100">
+        <v>345</v>
+      </c>
+      <c r="K10" s="113">
+        <v>448509014</v>
+      </c>
+      <c r="L10" s="100">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="101">
+        <v>915529001</v>
+      </c>
+      <c r="C11" s="100">
+        <v>549</v>
+      </c>
+      <c r="E11" s="101">
+        <v>862970001</v>
+      </c>
+      <c r="F11" s="100">
+        <v>86</v>
+      </c>
+      <c r="H11" s="101">
+        <v>762846027</v>
+      </c>
+      <c r="I11" s="100">
+        <v>335</v>
+      </c>
+      <c r="K11" s="114">
+        <v>863595006</v>
+      </c>
+      <c r="L11" s="100">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="101">
+        <v>884319001</v>
+      </c>
+      <c r="C12" s="100">
+        <v>539</v>
+      </c>
+      <c r="E12" s="103">
+        <v>918292001</v>
+      </c>
+      <c r="F12" s="100">
+        <v>82</v>
+      </c>
+      <c r="H12" s="101">
+        <v>673677002</v>
+      </c>
+      <c r="I12" s="100">
+        <v>301</v>
+      </c>
+      <c r="K12" s="101">
+        <v>919365008</v>
+      </c>
+      <c r="L12" s="100">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="101">
+        <v>803757001</v>
+      </c>
+      <c r="C13" s="100">
+        <v>525</v>
+      </c>
+      <c r="E13" s="101">
+        <v>915529001</v>
+      </c>
+      <c r="F13" s="100">
+        <v>78</v>
+      </c>
+      <c r="H13" s="101">
+        <v>929165002</v>
+      </c>
+      <c r="I13" s="100">
+        <v>295</v>
+      </c>
+      <c r="K13" s="115">
+        <v>898694001</v>
+      </c>
+      <c r="L13" s="100">
+        <v>920</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68926FF9-76EC-4F24-961F-28AC3598F16F}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="50.86328125" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="139" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="139" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="141" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="Looking-at-new-customers" display="https://www.kaggle.com/code/tbierhance/product-launches-relevant-articles-customers - Looking-at-new-customers" xr:uid="{E07E3D4A-6C80-4C9D-9DFB-97E0FC340F67}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{AF742E54-1627-43F5-BE2F-6B5A7C1C5526}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8BC5E7-D47C-4424-9746-AFBED3D8AC64}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="54.1328125" style="140" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" style="140" customWidth="1"/>
+    <col min="3" max="16384" width="10.6640625" style="140"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="13.9">
+      <c r="A1" s="139" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="139" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="42" customHeight="1">
+      <c r="A2" s="142" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="141" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="138"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.25">
+      <c r="A4" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="140" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25">
+      <c r="A6" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.kaggle.com/code/sussudharsan/h-m-similar-products-recommender-script" xr:uid="{6522F471-8806-4158-A573-6DD3E5170AEC}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.kaggle.com/code/remekkinas/h-m-eda-first-look-into-data" xr:uid="{EEB7CEA7-F23F-4CA5-A520-D23A7736BD07}"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://www.kaggle.com/code/eunjeongkoo/eda-h-m-data" xr:uid="{4AE96836-9FF5-4C51-948A-2FE188F354C4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023691F0-150F-4969-8E02-51CE11461242}">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -4399,17 +7799,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9CBB30-2461-437B-9D80-83A82026094A}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N193"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="E8" sqref="E8"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="F188" sqref="F188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -4448,72 +7848,72 @@
       <c r="C3" s="54"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="128" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="128" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="107"/>
+      <c r="A5" s="128"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="107"/>
+      <c r="A6" s="128"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="107"/>
+      <c r="A7" s="128"/>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
     </row>
     <row r="8" spans="1:14" ht="13.15">
       <c r="A8" s="44" t="s">
@@ -4563,8 +7963,8 @@
       <c r="D10" s="58">
         <v>47224</v>
       </c>
-      <c r="E10" s="105"/>
-      <c r="F10" s="109" t="s">
+      <c r="E10" s="126"/>
+      <c r="F10" s="130" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4579,8 +7979,8 @@
       <c r="D11" s="58">
         <v>45875</v>
       </c>
-      <c r="E11" s="106"/>
-      <c r="F11" s="109"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="130"/>
     </row>
     <row r="12" spans="1:14" ht="38.75" customHeight="1">
       <c r="A12" s="53" t="s">
@@ -4593,8 +7993,8 @@
       <c r="D12" s="51">
         <v>132</v>
       </c>
-      <c r="E12" s="105"/>
-      <c r="F12" s="109" t="s">
+      <c r="E12" s="126"/>
+      <c r="F12" s="130" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4609,8 +8009,8 @@
       <c r="D13" s="51">
         <v>131</v>
       </c>
-      <c r="E13" s="111"/>
-      <c r="F13" s="109"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="130"/>
     </row>
     <row r="14" spans="1:14" ht="38.75" customHeight="1">
       <c r="A14" s="53" t="s">
@@ -4623,8 +8023,8 @@
       <c r="D14" s="51">
         <v>19</v>
       </c>
-      <c r="E14" s="106"/>
-      <c r="F14" s="109"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="130"/>
     </row>
     <row r="15" spans="1:14" ht="38.75" customHeight="1">
       <c r="A15" s="53" t="s">
@@ -4637,8 +8037,8 @@
       <c r="D15" s="51">
         <v>30</v>
       </c>
-      <c r="E15" s="105"/>
-      <c r="F15" s="109" t="s">
+      <c r="E15" s="126"/>
+      <c r="F15" s="130" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4653,8 +8053,8 @@
       <c r="D16" s="51">
         <v>30</v>
       </c>
-      <c r="E16" s="106"/>
-      <c r="F16" s="110"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="131"/>
     </row>
     <row r="17" spans="1:6" ht="38.75" customHeight="1">
       <c r="A17" s="53" t="s">
@@ -4667,8 +8067,8 @@
       <c r="D17" s="51">
         <v>50</v>
       </c>
-      <c r="E17" s="105"/>
-      <c r="F17" s="109" t="s">
+      <c r="E17" s="126"/>
+      <c r="F17" s="130" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4683,8 +8083,8 @@
       <c r="D18" s="51">
         <v>50</v>
       </c>
-      <c r="E18" s="106"/>
-      <c r="F18" s="109"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="130"/>
     </row>
     <row r="19" spans="1:6" ht="38.75" customHeight="1">
       <c r="A19" s="53" t="s">
@@ -4695,8 +8095,8 @@
       </c>
       <c r="C19" s="72"/>
       <c r="D19" s="51"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="109" t="s">
+      <c r="E19" s="134"/>
+      <c r="F19" s="130" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4709,8 +8109,8 @@
       </c>
       <c r="C20" s="72"/>
       <c r="D20" s="51"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="110"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="131"/>
     </row>
     <row r="21" spans="1:6" ht="38.75" customHeight="1">
       <c r="A21" s="53" t="s">
@@ -4721,8 +8121,8 @@
       </c>
       <c r="C21" s="72"/>
       <c r="D21" s="51"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="110"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="131"/>
     </row>
     <row r="22" spans="1:6" ht="38.75" customHeight="1">
       <c r="A22" s="53" t="s">
@@ -4733,8 +8133,8 @@
       </c>
       <c r="C22" s="72"/>
       <c r="D22" s="51"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="112"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="133"/>
     </row>
     <row r="23" spans="1:6" ht="38.75" customHeight="1">
       <c r="A23" s="53" t="s">
@@ -4747,8 +8147,8 @@
       <c r="D23" s="51">
         <v>299</v>
       </c>
-      <c r="E23" s="105"/>
-      <c r="F23" s="103" t="s">
+      <c r="E23" s="126"/>
+      <c r="F23" s="124" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4763,8 +8163,8 @@
       <c r="D24" s="51">
         <v>250</v>
       </c>
-      <c r="E24" s="106"/>
-      <c r="F24" s="104"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="125"/>
     </row>
     <row r="25" spans="1:6" ht="38.75" customHeight="1">
       <c r="A25" s="53" t="s">
@@ -4775,8 +8175,8 @@
       </c>
       <c r="C25" s="72"/>
       <c r="D25" s="51"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="103" t="s">
+      <c r="E25" s="126"/>
+      <c r="F25" s="124" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4789,8 +8189,8 @@
       </c>
       <c r="C26" s="72"/>
       <c r="D26" s="51"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="104"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="125"/>
     </row>
     <row r="27" spans="1:6" ht="38.75" customHeight="1">
       <c r="A27" s="53" t="s">
@@ -4801,8 +8201,8 @@
       </c>
       <c r="C27" s="72"/>
       <c r="D27" s="51"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="103" t="s">
+      <c r="E27" s="126"/>
+      <c r="F27" s="124" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4815,8 +8215,8 @@
       </c>
       <c r="C28" s="72"/>
       <c r="D28" s="51"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="116"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="137"/>
     </row>
     <row r="29" spans="1:6" ht="38.75" customHeight="1">
       <c r="A29" s="53" t="s">
@@ -4829,8 +8229,8 @@
       <c r="D29" s="51">
         <v>57</v>
       </c>
-      <c r="E29" s="105"/>
-      <c r="F29" s="103" t="s">
+      <c r="E29" s="126"/>
+      <c r="F29" s="124" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4845,8 +8245,8 @@
       <c r="D30" s="51">
         <v>56</v>
       </c>
-      <c r="E30" s="106"/>
-      <c r="F30" s="104"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="125"/>
     </row>
     <row r="31" spans="1:6" ht="38.75" customHeight="1">
       <c r="A31" s="57" t="s">
@@ -4860,7 +8260,7 @@
         <v>21</v>
       </c>
       <c r="E31" s="60"/>
-      <c r="F31" s="103" t="s">
+      <c r="F31" s="124" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4876,7 +8276,7 @@
         <v>21</v>
       </c>
       <c r="E32" s="61"/>
-      <c r="F32" s="104"/>
+      <c r="F32" s="125"/>
     </row>
     <row r="33" spans="1:6" ht="38.75" customHeight="1">
       <c r="A33" s="53" t="s">
@@ -5044,6 +8444,1229 @@
     <row r="57" spans="1:3">
       <c r="A57" s="66" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15">
+      <c r="A62" s="143" t="s">
+        <v>239</v>
+      </c>
+      <c r="B62" s="45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15">
+      <c r="A63" s="143" t="s">
+        <v>240</v>
+      </c>
+      <c r="B63" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C63" s="45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15">
+      <c r="A64" s="143"/>
+      <c r="B64" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="C64" s="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15">
+      <c r="A65" s="143"/>
+      <c r="B65" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="C65" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15">
+      <c r="A66" s="143"/>
+      <c r="B66" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="C66" s="45">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15">
+      <c r="A67" s="143"/>
+      <c r="B67" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C67" s="45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15">
+      <c r="A68" s="143"/>
+      <c r="B68" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="C68" s="45">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15">
+      <c r="A69" s="143"/>
+      <c r="B69" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="C69" s="45">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15">
+      <c r="A70" s="143"/>
+      <c r="B70" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="C70" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15">
+      <c r="A71" s="143"/>
+      <c r="B71" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="C71" s="45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15">
+      <c r="A72" s="143"/>
+      <c r="B72" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="C72" s="45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15">
+      <c r="A73" s="143"/>
+      <c r="B73" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="C73" s="45">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15">
+      <c r="A74" s="143"/>
+      <c r="B74" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="C74" s="45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15">
+      <c r="A75" s="143"/>
+      <c r="B75" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="C75" s="45">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15">
+      <c r="A76" s="143"/>
+      <c r="B76" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="C76" s="45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15">
+      <c r="A77" s="143"/>
+      <c r="B77" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C77" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15">
+      <c r="A78" s="143"/>
+      <c r="B78" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="C78" s="45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15">
+      <c r="A79" s="143"/>
+      <c r="B79" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C79" s="45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15">
+      <c r="A80" s="143"/>
+      <c r="B80" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="C80" s="45">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15">
+      <c r="A81" s="143"/>
+      <c r="B81" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="C81" s="45">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15">
+      <c r="A82" s="143"/>
+      <c r="B82" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="C82" s="45">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15">
+      <c r="A83" s="143"/>
+      <c r="B83" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="C83" s="45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15">
+      <c r="A84" s="143"/>
+      <c r="B84" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="C84" s="45">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15">
+      <c r="A85" s="143"/>
+      <c r="B85" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="C85" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15">
+      <c r="A86" s="143"/>
+      <c r="B86" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="C86" s="45">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15">
+      <c r="A87" s="143"/>
+      <c r="B87" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="C87" s="45">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15">
+      <c r="A88" s="143"/>
+      <c r="B88" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="C88" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15">
+      <c r="A89" s="143"/>
+      <c r="B89" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="C89" s="45">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15">
+      <c r="A90" s="143"/>
+      <c r="B90" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" s="45">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15">
+      <c r="A91" s="143"/>
+      <c r="B91" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="C91" s="45">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15">
+      <c r="A92" s="143"/>
+      <c r="B92" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="C92" s="45">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15">
+      <c r="A93" s="143"/>
+      <c r="B93" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="C93" s="45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15">
+      <c r="A94" s="143"/>
+      <c r="B94" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="C94" s="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15">
+      <c r="A95" s="143"/>
+      <c r="B95" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="C95" s="45">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15">
+      <c r="A96" s="143"/>
+      <c r="B96" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="C96" s="45">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15">
+      <c r="A97" s="143"/>
+      <c r="B97" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="C97" s="45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15">
+      <c r="A98" s="143"/>
+      <c r="B98" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="C98" s="45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15">
+      <c r="A99" s="143"/>
+      <c r="B99" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="C99" s="45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15">
+      <c r="A100" s="143"/>
+      <c r="B100" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="C100" s="45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15">
+      <c r="A101" s="143" t="s">
+        <v>279</v>
+      </c>
+      <c r="B101" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="C101" s="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15">
+      <c r="A102" s="143"/>
+      <c r="B102" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="C102" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15">
+      <c r="A103" s="143"/>
+      <c r="B103" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="C103" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15">
+      <c r="A104" s="143"/>
+      <c r="B104" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="C104" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15">
+      <c r="A105" s="143"/>
+      <c r="B105" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="C105" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15">
+      <c r="A106" s="143"/>
+      <c r="B106" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="C106" s="45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15">
+      <c r="A107" s="143" t="s">
+        <v>286</v>
+      </c>
+      <c r="B107" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="C107" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15">
+      <c r="A108" s="143"/>
+      <c r="B108" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="C108" s="45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15">
+      <c r="A109" s="143" t="s">
+        <v>289</v>
+      </c>
+      <c r="B109" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="C109" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15">
+      <c r="A110" s="143" t="s">
+        <v>291</v>
+      </c>
+      <c r="B110" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="C110" s="45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15">
+      <c r="A111" s="143" t="s">
+        <v>293</v>
+      </c>
+      <c r="B111" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="C111" s="45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15">
+      <c r="A112" s="143"/>
+      <c r="B112" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="C112" s="45">
+        <v>10362</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15">
+      <c r="A113" s="143"/>
+      <c r="B113" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="C113" s="45">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15">
+      <c r="A114" s="143"/>
+      <c r="B114" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="C114" s="45">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15">
+      <c r="A115" s="143"/>
+      <c r="B115" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="C115" s="45">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15">
+      <c r="A116" s="143"/>
+      <c r="B116" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="C116" s="45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15">
+      <c r="A117" s="143" t="s">
+        <v>300</v>
+      </c>
+      <c r="B117" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="C117" s="45">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15">
+      <c r="A118" s="143"/>
+      <c r="B118" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="C118" s="45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15">
+      <c r="A119" s="143"/>
+      <c r="B119" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="C119" s="45">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15">
+      <c r="A120" s="143"/>
+      <c r="B120" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="C120" s="45">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15">
+      <c r="A121" s="143"/>
+      <c r="B121" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="C121" s="45">
+        <v>11169</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15">
+      <c r="A122" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="C122" s="45">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15">
+      <c r="A123" s="143"/>
+      <c r="B123" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="C123" s="45">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15">
+      <c r="A124" s="143"/>
+      <c r="B124" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="C124" s="45">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15">
+      <c r="A125" s="143"/>
+      <c r="B125" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="C125" s="45">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15">
+      <c r="A126" s="143"/>
+      <c r="B126" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="C126" s="45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15">
+      <c r="A127" s="143"/>
+      <c r="B127" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="C127" s="45">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15">
+      <c r="A128" s="143"/>
+      <c r="B128" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="C128" s="45">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15">
+      <c r="A129" s="143"/>
+      <c r="B129" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="C129" s="45">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15">
+      <c r="A130" s="143"/>
+      <c r="B130" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="C130" s="45">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15">
+      <c r="A131" s="143"/>
+      <c r="B131" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="C131" s="45">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15">
+      <c r="A132" s="143"/>
+      <c r="B132" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="C132" s="45">
+        <v>9302</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15">
+      <c r="A133" s="143"/>
+      <c r="B133" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="C133" s="45">
+        <v>7904</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15">
+      <c r="A134" s="143"/>
+      <c r="B134" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="C134" s="45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15">
+      <c r="A135" s="143"/>
+      <c r="B135" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="C135" s="45">
+        <v>4155</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15">
+      <c r="A136" s="143"/>
+      <c r="B136" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C136" s="45">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15">
+      <c r="A137" s="143" t="s">
+        <v>320</v>
+      </c>
+      <c r="B137" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="C137" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15">
+      <c r="A138" s="143"/>
+      <c r="B138" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="C138" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15">
+      <c r="A139" s="143"/>
+      <c r="B139" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="C139" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15">
+      <c r="A140" s="143"/>
+      <c r="B140" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="C140" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15">
+      <c r="A141" s="143"/>
+      <c r="B141" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="C141" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15">
+      <c r="A142" s="143"/>
+      <c r="B142" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="C142" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15">
+      <c r="A143" s="143" t="s">
+        <v>327</v>
+      </c>
+      <c r="B143" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="C143" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15">
+      <c r="A144" s="143"/>
+      <c r="B144" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="C144" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15">
+      <c r="A145" s="143"/>
+      <c r="B145" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="C145" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15">
+      <c r="A146" s="143" t="s">
+        <v>331</v>
+      </c>
+      <c r="B146" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="C146" s="45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15">
+      <c r="A147" s="143"/>
+      <c r="B147" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="C147" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15">
+      <c r="A148" s="143"/>
+      <c r="B148" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="C148" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15">
+      <c r="A149" s="143"/>
+      <c r="B149" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="C149" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15">
+      <c r="A150" s="143"/>
+      <c r="B150" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="C150" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15">
+      <c r="A151" s="143" t="s">
+        <v>336</v>
+      </c>
+      <c r="B151" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="C151" s="45">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15">
+      <c r="A152" s="143"/>
+      <c r="B152" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="C152" s="45">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15">
+      <c r="A153" s="143"/>
+      <c r="B153" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="C153" s="45">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15">
+      <c r="A154" s="143"/>
+      <c r="B154" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="C154" s="45">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15">
+      <c r="A155" s="143" t="s">
+        <v>341</v>
+      </c>
+      <c r="B155" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="C155" s="45">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15">
+      <c r="A156" s="143"/>
+      <c r="B156" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="C156" s="45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15">
+      <c r="A157" s="143"/>
+      <c r="B157" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="C157" s="45">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15">
+      <c r="A158" s="143"/>
+      <c r="B158" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="C158" s="45">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15">
+      <c r="A159" s="143"/>
+      <c r="B159" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="C159" s="45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15">
+      <c r="A160" s="143"/>
+      <c r="B160" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="C160" s="45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15">
+      <c r="A161" s="143"/>
+      <c r="B161" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="C161" s="45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15">
+      <c r="A162" s="143"/>
+      <c r="B162" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="C162" s="45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15">
+      <c r="A163" s="143"/>
+      <c r="B163" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="C163" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15">
+      <c r="A164" s="143"/>
+      <c r="B164" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="C164" s="45">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15">
+      <c r="A165" s="143"/>
+      <c r="B165" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="C165" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15">
+      <c r="A166" s="143"/>
+      <c r="B166" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="C166" s="45">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15">
+      <c r="A167" s="143"/>
+      <c r="B167" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="C167" s="45">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15">
+      <c r="A168" s="143"/>
+      <c r="B168" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="C168" s="45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15">
+      <c r="A169" s="143"/>
+      <c r="B169" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="C169" s="45">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15">
+      <c r="A170" s="143"/>
+      <c r="B170" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="C170" s="45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15">
+      <c r="A171" s="143" t="s">
+        <v>358</v>
+      </c>
+      <c r="B171" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="C171" s="45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15">
+      <c r="A172" s="143"/>
+      <c r="B172" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="C172" s="45">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15">
+      <c r="A173" s="143"/>
+      <c r="B173" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="C173" s="45">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15">
+      <c r="A174" s="143" t="s">
+        <v>362</v>
+      </c>
+      <c r="B174" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="C174" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15">
+      <c r="A175" s="143" t="s">
+        <v>364</v>
+      </c>
+      <c r="B175" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="C175" s="45">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15">
+      <c r="A176" s="143"/>
+      <c r="B176" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="C176" s="45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15">
+      <c r="A177" s="143"/>
+      <c r="B177" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="C177" s="45">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15">
+      <c r="A178" s="143"/>
+      <c r="B178" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="C178" s="45">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15">
+      <c r="A179" s="143"/>
+      <c r="B179" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="C179" s="45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15">
+      <c r="A180" s="143"/>
+      <c r="B180" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="C180" s="45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15">
+      <c r="A181" s="143" t="s">
+        <v>371</v>
+      </c>
+      <c r="B181" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="C181" s="45">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15">
+      <c r="A182" s="143"/>
+      <c r="B182" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="C182" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15">
+      <c r="A183" s="143"/>
+      <c r="B183" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="C183" s="45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15">
+      <c r="A184" s="143"/>
+      <c r="B184" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="C184" s="45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15">
+      <c r="A185" s="143"/>
+      <c r="B185" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="C185" s="45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15">
+      <c r="A186" s="143"/>
+      <c r="B186" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="C186" s="45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15">
+      <c r="A187" s="143"/>
+      <c r="B187" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="C187" s="45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15">
+      <c r="A188" s="143"/>
+      <c r="B188" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="C188" s="45">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15">
+      <c r="A189" s="143"/>
+      <c r="B189" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="C189" s="45">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15">
+      <c r="A190" s="143"/>
+      <c r="B190" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="C190" s="45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15">
+      <c r="A191" s="143"/>
+      <c r="B191" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C191" s="45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15">
+      <c r="A192" s="143" t="s">
+        <v>383</v>
+      </c>
+      <c r="B192" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="C192" s="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15">
+      <c r="A193" s="143"/>
+      <c r="B193" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="C193" s="45">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -5073,496 +9696,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A375C8-869D-4066-91F9-FA9320E87AD6}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:M44"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozenSplit"/>
-      <selection activeCell="E8" sqref="E8"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="24.1328125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="10.53125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="45"/>
-    <col min="4" max="4" width="1.9296875" style="45" customWidth="1"/>
-    <col min="5" max="5" width="93.33203125" style="47" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="45"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="24" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="44"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="67">
-        <v>1371980</v>
-      </c>
-      <c r="D2" s="46"/>
-    </row>
-    <row r="3" spans="1:13" ht="8.25" customHeight="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="107" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="107" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="107"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="107"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="107"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-    </row>
-    <row r="8" spans="1:13" ht="13.15">
-      <c r="A8" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="38.75" customHeight="1">
-      <c r="A9" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="53" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="38.75" customHeight="1">
-      <c r="A10" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="57" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="38.75" customHeight="1">
-      <c r="A11" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="57" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="38.75" customHeight="1">
-      <c r="A12" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="57" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="38.75" customHeight="1">
-      <c r="A13" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="38.75" customHeight="1">
-      <c r="A14" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="57" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="38.75" customHeight="1">
-      <c r="A15" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="57" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="38.75" customHeight="1">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="53"/>
-    </row>
-    <row r="17" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="57"/>
-    </row>
-    <row r="18" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="57"/>
-    </row>
-    <row r="19" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="57"/>
-    </row>
-    <row r="20" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="53"/>
-    </row>
-    <row r="21" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="53"/>
-    </row>
-    <row r="22" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="65"/>
-    </row>
-    <row r="23" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="62"/>
-    </row>
-    <row r="24" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="63"/>
-    </row>
-    <row r="25" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="62"/>
-    </row>
-    <row r="26" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="63"/>
-    </row>
-    <row r="27" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="62"/>
-    </row>
-    <row r="28" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="64"/>
-    </row>
-    <row r="29" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="62"/>
-    </row>
-    <row r="30" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="63"/>
-    </row>
-    <row r="31" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="62"/>
-    </row>
-    <row r="32" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="63"/>
-    </row>
-    <row r="33" spans="1:5" ht="38.75" customHeight="1">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="53"/>
-    </row>
-    <row r="35" spans="1:5" ht="38.25">
-      <c r="A35" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="55"/>
-    </row>
-    <row r="36" spans="1:5" ht="51.4">
-      <c r="A36" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="55"/>
-    </row>
-    <row r="37" spans="1:5" ht="25.5">
-      <c r="A37" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="55"/>
-    </row>
-    <row r="38" spans="1:5" ht="38.25">
-      <c r="A38" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="55"/>
-    </row>
-    <row r="39" spans="1:5" ht="63.75">
-      <c r="A39" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="55"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C4:M7"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8F9103-AA65-4087-9868-87054B4C249D}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.15"/>
-  <cols>
-    <col min="1" max="1" width="22.06640625" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="10.6640625" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="117" t="s">
-        <v>219</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D878A8-606F-46BE-97F6-742F75313951}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" location="sklearn.utils.multiclass.type_of_target" tooltip="sklearn.utils.multiclass.type_of_target" display="https://scikit-learn.org/stable/modules/generated/sklearn.utils.multiclass.type_of_target.html - sklearn.utils.multiclass.type_of_target" xr:uid="{F229B002-F83D-4B59-A051-65B2F2ADDCCE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>